--- a/lib/tasks/student_dapodik.xlsx
+++ b/lib/tasks/student_dapodik.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="798" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="700" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="857">
   <si>
     <t>Count</t>
   </si>
@@ -93,2143 +93,2149 @@
     <t>Protestant</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SMP Cahaya Bangsa Classical School</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Jl. Budi Asih I/21</t>
+  </si>
+  <si>
+    <t>Christian Lesmana</t>
+  </si>
+  <si>
+    <t>Wiraswasta</t>
+  </si>
+  <si>
+    <t>Merlinda Hie</t>
+  </si>
+  <si>
+    <t>Tidak bekerja</t>
+  </si>
+  <si>
+    <t>20081401</t>
+  </si>
+  <si>
+    <t>0029807545</t>
+  </si>
+  <si>
+    <t>Alexander Davis</t>
+  </si>
+  <si>
+    <t>BANDUNG</t>
+  </si>
+  <si>
+    <t>Catholic</t>
+  </si>
+  <si>
+    <t>Jl. Nagawarna No. 16 Tatar Naganingrum KBP</t>
+  </si>
+  <si>
+    <t>Lukas Djunaidi Tjandra</t>
+  </si>
+  <si>
+    <t>Karyawan Swasta</t>
+  </si>
+  <si>
+    <t>Felesia Fanty</t>
+  </si>
+  <si>
+    <t>20061408</t>
+  </si>
+  <si>
+    <t>0028427357</t>
+  </si>
+  <si>
+    <t>Alexandra Evelyne Wijaya</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>JL LARANG SETRA 15, TATAR LARANGTAPA, KBP</t>
+  </si>
+  <si>
+    <t>YOHANES ADHITYA WIJAYA</t>
+  </si>
+  <si>
+    <t>KATARINA YOLIS ALVIONITA</t>
+  </si>
+  <si>
+    <t>20061416</t>
+  </si>
+  <si>
+    <t>0029862167</t>
+  </si>
+  <si>
+    <t>Angeline Florence Hermanus</t>
+  </si>
+  <si>
+    <t>JL JINGGA LAKSANA WETAN 38, TATAR JINGGANAGARA, KBP</t>
+  </si>
+  <si>
+    <t>DAVY RONALD HERMANUS</t>
+  </si>
+  <si>
+    <t>PAULIN TOBING HERMANUS</t>
+  </si>
+  <si>
+    <t>Lainnya</t>
+  </si>
+  <si>
+    <t>20071501</t>
+  </si>
+  <si>
+    <t>0025829670</t>
+  </si>
+  <si>
+    <t>Aurelia Sherrylin Rosanne</t>
+  </si>
+  <si>
+    <t>JL LARANG PUSPA  10, TATAR LARANGTAPA, KBP</t>
+  </si>
+  <si>
+    <t>RONNY KARIM</t>
+  </si>
+  <si>
+    <t>TASANA</t>
+  </si>
+  <si>
+    <t>20051301</t>
+  </si>
+  <si>
+    <t>0029026071</t>
+  </si>
+  <si>
+    <t>Beatrice Alvina Sugiarto</t>
+  </si>
+  <si>
+    <t>JL BATIK KUMELI 74</t>
+  </si>
+  <si>
+    <t>OENTUNG SUGIARTO</t>
+  </si>
+  <si>
+    <t>Wirausaha</t>
+  </si>
+  <si>
+    <t>DEWI RATNA IRAWATI BUDI HARJANTO</t>
+  </si>
+  <si>
+    <t>20071402</t>
+  </si>
+  <si>
+    <t>0029076274</t>
+  </si>
+  <si>
+    <t>Beatrix Eugenia Suriadi Halim</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>JL RANCA BENTANG 12A</t>
+  </si>
+  <si>
+    <t>DAUD SURIADI HALIM</t>
+  </si>
+  <si>
+    <t>LULU NATALIA K</t>
+  </si>
+  <si>
+    <t>20061322</t>
+  </si>
+  <si>
+    <t>0034266824</t>
+  </si>
+  <si>
+    <t>Brian Adriel Hirianto</t>
+  </si>
+  <si>
+    <t>JL CEMARA 79</t>
+  </si>
+  <si>
+    <t>ANDI GINARDI HIRIANTO</t>
+  </si>
+  <si>
+    <t>MARLENE ESMERALDA SUPONO</t>
+  </si>
+  <si>
+    <t>20150801</t>
+  </si>
+  <si>
+    <t>0023689638</t>
+  </si>
+  <si>
+    <t>Bryan Joseph Michael Silitonga</t>
+  </si>
+  <si>
+    <t>Jingga Waluya No 5, KBP</t>
+  </si>
+  <si>
+    <t>NANGKOK LAMPATAR SILITONGA</t>
+  </si>
+  <si>
+    <t>SLAMET UTAMI</t>
+  </si>
+  <si>
+    <t>20081402</t>
+  </si>
+  <si>
+    <t>0042909302</t>
+  </si>
+  <si>
+    <t>Calvin Theodore Gani</t>
+  </si>
+  <si>
+    <t>Jl. Buana Indah I/22</t>
+  </si>
+  <si>
+    <t>Rubijanto Gani</t>
+  </si>
+  <si>
+    <t>Leny Muljadi</t>
+  </si>
+  <si>
+    <t>20100101</t>
+  </si>
+  <si>
+    <t>0048650882</t>
+  </si>
+  <si>
+    <t>Carissa Angelique</t>
+  </si>
+  <si>
+    <t>Jl. Leuwi Gajah 249</t>
+  </si>
+  <si>
+    <t>Petrus Persadanta Sitepu</t>
+  </si>
+  <si>
+    <t>Lily Fransisca Ginting</t>
+  </si>
+  <si>
+    <t>20100102</t>
+  </si>
+  <si>
+    <t>0038019927</t>
+  </si>
+  <si>
+    <t>Catherine Aurelia Tirta</t>
+  </si>
+  <si>
+    <t>Jl. Setra Duta Lestari E2/3</t>
+  </si>
+  <si>
+    <t>Frinan Tirta</t>
+  </si>
+  <si>
+    <t>Lenny Iskandar</t>
+  </si>
+  <si>
+    <t>20130504</t>
+  </si>
+  <si>
+    <t>0031250310</t>
+  </si>
+  <si>
+    <t>Cheryl Jocelyn Yogasara</t>
+  </si>
+  <si>
+    <t>JL INTAN PERMATA A/2</t>
+  </si>
+  <si>
+    <t>TJENDEKIA YOGASARA</t>
+  </si>
+  <si>
+    <t>VERA NATALIA DANUBRATA</t>
+  </si>
+  <si>
+    <t>20051303</t>
+  </si>
+  <si>
+    <t>0019956667</t>
+  </si>
+  <si>
+    <t>Chrissy Malinda</t>
+  </si>
+  <si>
+    <t>JL LEMBAH SUKARESMI II/8</t>
+  </si>
+  <si>
+    <t>WAHYU IRNAWARMAN</t>
+  </si>
+  <si>
+    <t>LUCYKE TIRTA</t>
+  </si>
+  <si>
+    <t>20170901</t>
+  </si>
+  <si>
+    <t>0035582161</t>
+  </si>
+  <si>
+    <t>Christian Lawrence Lana Raton</t>
+  </si>
+  <si>
+    <t>Filipina</t>
+  </si>
+  <si>
+    <t>Jl. Nagawijaya Wetan no 7</t>
+  </si>
+  <si>
+    <t>Lailani Lana Raton</t>
+  </si>
+  <si>
+    <t>20100103</t>
+  </si>
+  <si>
+    <t>0037240295</t>
+  </si>
+  <si>
+    <t>Christofer Bunyamin</t>
+  </si>
+  <si>
+    <t>Jl. Astanaanyar 87</t>
+  </si>
+  <si>
+    <t>Yuki Samsul</t>
+  </si>
+  <si>
+    <t>Ani Susilowati</t>
+  </si>
+  <si>
+    <t>20061413</t>
+  </si>
+  <si>
+    <t>0028366667</t>
+  </si>
+  <si>
+    <t>Christopher Alexander Santoso</t>
+  </si>
+  <si>
+    <t>JL LARANGSETRA  29, TATAR LARANGTAPA, KBP</t>
+  </si>
+  <si>
+    <t>IWAN SANTOSO HENDARTO</t>
+  </si>
+  <si>
+    <t>LISA GUNAWAN</t>
+  </si>
+  <si>
+    <t>20091502</t>
+  </si>
+  <si>
+    <t>0031682213</t>
+  </si>
+  <si>
+    <t>Clarissa Audrey Jonathan</t>
+  </si>
+  <si>
+    <t>Purwakarta</t>
+  </si>
+  <si>
+    <t>Jl. Jinggawijaya Kulon 40  KBP</t>
+  </si>
+  <si>
+    <t>Jonatan</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>20061304</t>
+  </si>
+  <si>
+    <t>0037981220</t>
+  </si>
+  <si>
+    <t>Daniel Ronan</t>
+  </si>
+  <si>
+    <t>JL JATIHANDAP 104</t>
+  </si>
+  <si>
+    <t>RONNIE ROG</t>
+  </si>
+  <si>
+    <t>RISTIANTI</t>
+  </si>
+  <si>
+    <t>20130601</t>
+  </si>
+  <si>
+    <t>0025493065</t>
+  </si>
+  <si>
+    <t>Darien</t>
+  </si>
+  <si>
+    <t>TAMAN MIMOSA 43, TAMAN SAKURA</t>
+  </si>
+  <si>
+    <t>THOMAS GOZALI</t>
+  </si>
+  <si>
+    <t>LINGGAWATI LILY</t>
+  </si>
+  <si>
+    <t>20081501</t>
+  </si>
+  <si>
+    <t>0024209736</t>
+  </si>
+  <si>
+    <t>Dave Adriel Khuana</t>
+  </si>
+  <si>
+    <t>JL SETRADUTA GREEN TERRACE 12</t>
+  </si>
+  <si>
+    <t>SANDY JUSAK KHUANA</t>
+  </si>
+  <si>
+    <t>DEBBIE ERYSIANA CHRISTIAN</t>
+  </si>
+  <si>
+    <t>20081403</t>
+  </si>
+  <si>
+    <t>0031248243</t>
+  </si>
+  <si>
+    <t>Devin Derrick Filistin</t>
+  </si>
+  <si>
+    <t>Jl. Setiabudi 344</t>
+  </si>
+  <si>
+    <t>Hendra Filistin</t>
+  </si>
+  <si>
+    <t>Yulianti Setiady</t>
+  </si>
+  <si>
+    <t>20081404</t>
+  </si>
+  <si>
+    <t>0036463216</t>
+  </si>
+  <si>
+    <t>Earron Keane Woen</t>
+  </si>
+  <si>
+    <t>Perum Taman Anggrek 31</t>
+  </si>
+  <si>
+    <t>Fiandi Ha</t>
+  </si>
+  <si>
+    <t>Krisnayani</t>
+  </si>
+  <si>
+    <t>20081502</t>
+  </si>
+  <si>
+    <t>0029835479</t>
+  </si>
+  <si>
+    <t>Edward Sutanto</t>
+  </si>
+  <si>
+    <t>TAMAN LINGKAR SELATAN 5</t>
+  </si>
+  <si>
+    <t>MARKIN SUTANTO</t>
+  </si>
+  <si>
+    <t>MARCELINA CAHYADI</t>
+  </si>
+  <si>
+    <t>20130401</t>
+  </si>
+  <si>
+    <t>0042629389</t>
+  </si>
+  <si>
+    <t>Ethan Augustine Khoe Lie</t>
+  </si>
+  <si>
+    <t>PLANO, TEXAS, USA</t>
+  </si>
+  <si>
+    <t>JL. DEWI SRI NO.2</t>
+  </si>
+  <si>
+    <t>YULIUS LIE</t>
+  </si>
+  <si>
+    <t>HANNY KOSWARA</t>
+  </si>
+  <si>
+    <t>20061306</t>
+  </si>
+  <si>
+    <t>0024622426</t>
+  </si>
+  <si>
+    <t>Ethan Elnathan Mathias</t>
+  </si>
+  <si>
+    <t>JL BANYAK LAGA 10, TATAR BANYAK SUMBA, KBP</t>
+  </si>
+  <si>
+    <t>JOSMAN MATHIAS RESFIANTO</t>
+  </si>
+  <si>
+    <t>LIDIANA SUHERMAN</t>
+  </si>
+  <si>
+    <t>20051318</t>
+  </si>
+  <si>
+    <t>0024606264</t>
+  </si>
+  <si>
+    <t>Ezra Joywilar</t>
+  </si>
+  <si>
+    <t>Jl. Batununggal Lestari II no 5</t>
+  </si>
+  <si>
+    <t>WILLY THEODORUS</t>
+  </si>
+  <si>
+    <t>ARLENE</t>
+  </si>
+  <si>
+    <t>LINGGIARTI</t>
+  </si>
+  <si>
+    <t>Pensiunan</t>
+  </si>
+  <si>
+    <t>20071404</t>
+  </si>
+  <si>
+    <t>0036447590</t>
+  </si>
+  <si>
+    <t>Favian Gerard</t>
+  </si>
+  <si>
+    <t>JL PUNGKUR 102</t>
+  </si>
+  <si>
+    <t>Darwan Astono</t>
+  </si>
+  <si>
+    <t>ROSA SAMINI</t>
+  </si>
+  <si>
+    <t>20061414</t>
+  </si>
+  <si>
+    <t>0025406051</t>
+  </si>
+  <si>
+    <t>Febiola Gladys Landau</t>
+  </si>
+  <si>
+    <t>JL RAMBUT KENCANA 1, TATAR RAMBUTKASIH, KBP</t>
+  </si>
+  <si>
+    <t>ANDRYANTO ADI UTAMA</t>
+  </si>
+  <si>
+    <t>SUSANA HASAN</t>
+  </si>
+  <si>
+    <t>20071303</t>
+  </si>
+  <si>
+    <t>0044677266</t>
+  </si>
+  <si>
+    <t>Felicia Cordelia Ruslim</t>
+  </si>
+  <si>
+    <t>Jl. Kembar Mas Barat 4</t>
+  </si>
+  <si>
+    <t>Pujianto</t>
+  </si>
+  <si>
+    <t>Agustin</t>
+  </si>
+  <si>
+    <t>20170802</t>
+  </si>
+  <si>
+    <t>3035827398</t>
+  </si>
+  <si>
+    <t>Fredie Scott Lana Raton</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Jl. Naga Wetan 7</t>
+  </si>
+  <si>
+    <t>20090102</t>
+  </si>
+  <si>
+    <t>0021640076</t>
+  </si>
+  <si>
+    <t>Grace Julia Santoso</t>
+  </si>
+  <si>
+    <t>JL RATNA AGUNG no 11, TATAR RATNASASIH, KBP</t>
+  </si>
+  <si>
+    <t>TJAHJA SANTOSO</t>
+  </si>
+  <si>
+    <t>DIANA FITRI WIDYA SARI</t>
+  </si>
+  <si>
+    <t>20170801</t>
+  </si>
+  <si>
+    <t>0042091063</t>
+  </si>
+  <si>
+    <t>Harminwan</t>
+  </si>
+  <si>
+    <t>JAKARTA</t>
+  </si>
+  <si>
+    <t>Bukit Bogor Raya Blok I. 20 / 19</t>
+  </si>
+  <si>
+    <t>Tjen Po Jun</t>
+  </si>
+  <si>
+    <t>DESSY INDAWATI</t>
+  </si>
+  <si>
+    <t>20130405</t>
+  </si>
+  <si>
+    <t>0039895667</t>
+  </si>
+  <si>
+    <t>Hyun Sik Yoon</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Jl. Jingga Wijaya 28</t>
+  </si>
+  <si>
+    <t>Soo Jung Kim</t>
+  </si>
+  <si>
+    <t>20071306</t>
+  </si>
+  <si>
+    <t>0046481030</t>
+  </si>
+  <si>
+    <t>Ivana Priscilla Sugiarto</t>
+  </si>
+  <si>
+    <t>Jl. Batik Kumeli 74</t>
+  </si>
+  <si>
+    <t>Oentung Sugiarto</t>
+  </si>
+  <si>
+    <t>Dewi Ratna Irawati</t>
+  </si>
+  <si>
+    <t>20090103</t>
+  </si>
+  <si>
+    <t>0038569316</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
+    <t>JL CIBADAK 312</t>
+  </si>
+  <si>
+    <t>BUDI YOGISAPUTRA</t>
+  </si>
+  <si>
+    <t>YANI HARYANI SUTRISNA</t>
+  </si>
+  <si>
+    <t>20071308</t>
+  </si>
+  <si>
+    <t>0048323399</t>
+  </si>
+  <si>
+    <t>Janice Elysia</t>
+  </si>
+  <si>
+    <t>Jl. Mayang Sekar 1 Tatar Mayangsunda KBP</t>
+  </si>
+  <si>
+    <t>Eksanto</t>
+  </si>
+  <si>
+    <t>Lie Lily</t>
+  </si>
+  <si>
+    <t>20080103</t>
+  </si>
+  <si>
+    <t>0021966852</t>
+  </si>
+  <si>
+    <t>Jansen Christopher Yuanda</t>
+  </si>
+  <si>
+    <t>JL KEMBAR MAS II/3</t>
+  </si>
+  <si>
+    <t>IKING YUANDA</t>
+  </si>
+  <si>
+    <t>KURNIASIH BAKRUN</t>
+  </si>
+  <si>
+    <t>20130403</t>
+  </si>
+  <si>
+    <t>0040635176</t>
+  </si>
+  <si>
+    <t>Jasmine Widjaja</t>
+  </si>
+  <si>
+    <t>JL. LARANGSETRA NO.16</t>
+  </si>
+  <si>
+    <t>ABRAHAM ASMIN WIDJAJA</t>
+  </si>
+  <si>
+    <t>ERLIN IMELDA SUTANDI</t>
+  </si>
+  <si>
+    <t>20071406</t>
+  </si>
+  <si>
+    <t>0027423965</t>
+  </si>
+  <si>
+    <t>Jason Sebastian Santoso</t>
+  </si>
+  <si>
+    <t>JL NAGADIGDAYA 14 TATAR NAGANINGRUM</t>
+  </si>
+  <si>
+    <t>TONY B SANTOSO</t>
+  </si>
+  <si>
+    <t>SICILLIA TJAHYADI</t>
+  </si>
+  <si>
+    <t>20081405</t>
+  </si>
+  <si>
+    <t>0048851380</t>
+  </si>
+  <si>
+    <t>Jeden Athera Sutanto</t>
+  </si>
+  <si>
+    <t>Jl. Terusan Sutami I/67E</t>
+  </si>
+  <si>
+    <t>Andrew Sutanto</t>
+  </si>
+  <si>
+    <t>Hermin Suwondo</t>
+  </si>
+  <si>
+    <t>20051306</t>
+  </si>
+  <si>
+    <t>0012963266</t>
+  </si>
+  <si>
+    <t>Jeff Gregory Hartono</t>
+  </si>
+  <si>
+    <t>JL Larang tapa, Kota Baru Parahyangan</t>
+  </si>
+  <si>
+    <t>RUDY HARTONO</t>
+  </si>
+  <si>
+    <t>SUZANA SETIADY</t>
+  </si>
+  <si>
+    <t>20061308</t>
+  </si>
+  <si>
+    <t>0032860365</t>
+  </si>
+  <si>
+    <t>Jennifer Christiana</t>
+  </si>
+  <si>
+    <t>MEKAR RAHARJA I/30</t>
+  </si>
+  <si>
+    <t>ANDI GUNAWAN KARTAWIDJAYA</t>
+  </si>
+  <si>
+    <t>JUNI SHINTALIA SLAMET</t>
+  </si>
+  <si>
+    <t>20071310</t>
+  </si>
+  <si>
+    <t>0043948637</t>
+  </si>
+  <si>
+    <t>Jessica Aurellia Lorenz</t>
+  </si>
+  <si>
+    <t>Perum Taman Lingkar Selatan Blok I/7</t>
+  </si>
+  <si>
+    <t>Halim Surjana</t>
+  </si>
+  <si>
+    <t>Julia Murniati Johanah</t>
+  </si>
+  <si>
+    <t>20160902</t>
+  </si>
+  <si>
+    <t>0020914611</t>
+  </si>
+  <si>
+    <t>Jessica Vania Budiman</t>
+  </si>
+  <si>
+    <t>Yogyakarta</t>
+  </si>
+  <si>
+    <t>Jl. Larang Asri no 29, Kota Baru Parahyangan</t>
+  </si>
+  <si>
+    <t>Dedy Budiman</t>
+  </si>
+  <si>
+    <t>Rina Anatasya Kuswara</t>
+  </si>
+  <si>
+    <t>Juliono Wijaya</t>
+  </si>
+  <si>
+    <t>20071505</t>
+  </si>
+  <si>
+    <t>0029135708</t>
+  </si>
+  <si>
+    <t>Jonathan Wilson Teja Wiguna</t>
+  </si>
+  <si>
+    <t>JL MUARA INDAH I/53</t>
+  </si>
+  <si>
+    <t>TJOA TJE TJIN</t>
+  </si>
+  <si>
+    <t>JONG WEN IE</t>
+  </si>
+  <si>
+    <t>20051307</t>
+  </si>
+  <si>
+    <t>0029883039</t>
+  </si>
+  <si>
+    <t>Joshia Tanumihardja</t>
+  </si>
+  <si>
+    <t>JL WANGSA NINGRAT 26, TATAR WANGSAKERTA, KBP</t>
+  </si>
+  <si>
+    <t>AAN TANUMIHARDJA</t>
+  </si>
+  <si>
+    <t>CORNELIA MARIA REGINA</t>
+  </si>
+  <si>
+    <t>20071312</t>
+  </si>
+  <si>
+    <t>0049845904</t>
+  </si>
+  <si>
+    <t>Joshua Natanael Lim</t>
+  </si>
+  <si>
+    <t>Taman Kopo Indah 2 BLOK I BA NO.22</t>
+  </si>
+  <si>
+    <t>Mulianto Halim</t>
+  </si>
+  <si>
+    <t>Soesilia Indrajani</t>
+  </si>
+  <si>
+    <t>20071311</t>
+  </si>
+  <si>
+    <t>0047831197</t>
+  </si>
+  <si>
+    <t>Joycelyn Tan</t>
+  </si>
+  <si>
+    <t>JL. LARANG SETRA 21 KBP</t>
+  </si>
+  <si>
+    <t>Doddy Tanuwidjaja</t>
+  </si>
+  <si>
+    <t>Yenny Lilie</t>
+  </si>
+  <si>
+    <t>20071313</t>
+  </si>
+  <si>
+    <t>0032144230</t>
+  </si>
+  <si>
+    <t>Kanyasani Desyona</t>
+  </si>
+  <si>
+    <t>Jl. Wangsa Setra Wetan 12 KBP</t>
+  </si>
+  <si>
+    <t>Janika Sasmito</t>
+  </si>
+  <si>
+    <t>Augustria Hariningtias</t>
+  </si>
+  <si>
+    <t>20090201</t>
+  </si>
+  <si>
+    <t>0027548243</t>
+  </si>
+  <si>
+    <t>Karel Dwinugroho Bowosebua</t>
+  </si>
+  <si>
+    <t>JL PONDOK MAS RAYA 42</t>
+  </si>
+  <si>
+    <t>JUTOMO BOWOPRAKOSA</t>
+  </si>
+  <si>
+    <t>TRESYA NOVIANA ZEBUA</t>
+  </si>
+  <si>
+    <t>20061309</t>
+  </si>
+  <si>
+    <t>0029588303</t>
+  </si>
+  <si>
+    <t>Karen Juvanka Ali Djaja</t>
+  </si>
+  <si>
+    <t>JL.KEMBAR TENGAH III No. 9</t>
+  </si>
+  <si>
+    <t>IVAN STEPHANUS ALIDJAJA</t>
+  </si>
+  <si>
+    <t>JUNIARTA ALIDJAJA</t>
+  </si>
+  <si>
+    <t>20051317</t>
+  </si>
+  <si>
+    <t>0021927933</t>
+  </si>
+  <si>
+    <t>Karyeen Kazteny Indrawan</t>
+  </si>
+  <si>
+    <t>JL SAKURA UTAMA 8, TERS. PASIRKOJA</t>
+  </si>
+  <si>
+    <t>INDRAWAN</t>
+  </si>
+  <si>
+    <t>LUSYE</t>
+  </si>
+  <si>
+    <t>20051308</t>
+  </si>
+  <si>
+    <t>0028841506</t>
+  </si>
+  <si>
+    <t>Keisha Amanda Hirianto</t>
+  </si>
+  <si>
+    <t>20130505</t>
+  </si>
+  <si>
+    <t>0027336555</t>
+  </si>
+  <si>
+    <t>Kenneth Manuel Tanuwidjaja</t>
+  </si>
+  <si>
+    <t>JL CIPEDES TENGAH 182A</t>
+  </si>
+  <si>
+    <t>UUNG TANUWIDJAJA</t>
+  </si>
+  <si>
+    <t>JULIA GUNAWAN</t>
+  </si>
+  <si>
+    <t>20061310</t>
+  </si>
+  <si>
+    <t>0035620989</t>
+  </si>
+  <si>
+    <t>Kenneth Samuel Wijaya</t>
+  </si>
+  <si>
+    <t>JL LARANG ASRI 29</t>
+  </si>
+  <si>
+    <t>JULIONO WIJAYA PANGESTU</t>
+  </si>
+  <si>
+    <t>SHINTA BUDIMAN</t>
+  </si>
+  <si>
+    <t>20071314</t>
+  </si>
+  <si>
+    <t>0047308867</t>
+  </si>
+  <si>
+    <t>Kenneth Steptayael Ali Djaja</t>
+  </si>
+  <si>
+    <t>Jl. Kembar Tengah III/9</t>
+  </si>
+  <si>
+    <t>Juniarta Alidjaja</t>
+  </si>
+  <si>
+    <t>20061311</t>
+  </si>
+  <si>
+    <t>0039719225</t>
+  </si>
+  <si>
+    <t>Kenrick Nicholas Honggana</t>
+  </si>
+  <si>
+    <t>JL JEND. A. YANI 543</t>
+  </si>
+  <si>
+    <t>Ir. Lukas</t>
+  </si>
+  <si>
+    <t>EVI CHRISTY</t>
+  </si>
+  <si>
+    <t>20071411</t>
+  </si>
+  <si>
+    <t>0022265512</t>
+  </si>
+  <si>
+    <t>Keren Victoria</t>
+  </si>
+  <si>
+    <t>JL BALADEWA 55</t>
+  </si>
+  <si>
+    <t>BUDHI MULYA TP</t>
+  </si>
+  <si>
+    <t>KWIK SIAUW LAN</t>
+  </si>
+  <si>
+    <t>20130404</t>
+  </si>
+  <si>
+    <t>0047340081</t>
+  </si>
+  <si>
+    <t>Kim Eun Bee</t>
+  </si>
+  <si>
+    <t>CIKARANG</t>
+  </si>
+  <si>
+    <t>JL. WANGSA PRAJA WETAN NO.9</t>
+  </si>
+  <si>
+    <t>KIM DO HUN</t>
+  </si>
+  <si>
+    <t>JEON KYUNG HAE</t>
+  </si>
+  <si>
+    <t>20130501</t>
+  </si>
+  <si>
+    <t>0026869588</t>
+  </si>
+  <si>
+    <t>Kim Hyun Woo</t>
+  </si>
+  <si>
+    <t>Jl. Wangsa Praja Wetan 9</t>
+  </si>
+  <si>
+    <t>Jeon Khung Hae</t>
+  </si>
+  <si>
+    <t>20071412</t>
+  </si>
+  <si>
+    <t>0025623179</t>
+  </si>
+  <si>
+    <t>Kimberly Celina Atmadja</t>
+  </si>
+  <si>
+    <t>JL RATNA KENCANA 45</t>
+  </si>
+  <si>
+    <t>SUBUR ATMADJA JAMIHARDJA</t>
+  </si>
+  <si>
+    <t>LIE FENNY WANGSAWIJAYA</t>
+  </si>
+  <si>
+    <t>20061312</t>
+  </si>
+  <si>
+    <t>0032085485</t>
+  </si>
+  <si>
+    <t>Klemens Justian Liu</t>
+  </si>
+  <si>
+    <t>Jl. Dakota 106 Kav. 12</t>
+  </si>
+  <si>
+    <t>HENDRIKS KOSASIH</t>
+  </si>
+  <si>
+    <t>CHRISTIN</t>
+  </si>
+  <si>
+    <t>20191002</t>
+  </si>
+  <si>
+    <t>0035618599</t>
+  </si>
+  <si>
+    <t>Kristoforus Naidu</t>
+  </si>
+  <si>
+    <t>SMP Bina Bangsa School</t>
+  </si>
+  <si>
+    <t>Jalan Saninten No. 43</t>
+  </si>
+  <si>
+    <t>Agus Wijaya</t>
+  </si>
+  <si>
+    <t>Rameni</t>
+  </si>
+  <si>
+    <t>20081504</t>
+  </si>
+  <si>
+    <t>0038327744</t>
+  </si>
+  <si>
+    <t>Laurentia Vanessa Sutjiadi</t>
+  </si>
+  <si>
+    <t>JL MAYANG PADMI 23</t>
+  </si>
+  <si>
+    <t>YOHAN SUTJIADI</t>
+  </si>
+  <si>
+    <t>FRANSISKA VIVI ARIF</t>
+  </si>
+  <si>
+    <t>20160901</t>
+  </si>
+  <si>
+    <t>0017266326</t>
+  </si>
+  <si>
+    <t>Lee Eun Chae</t>
+  </si>
+  <si>
+    <t>20071316</t>
+  </si>
+  <si>
+    <t>0049958079</t>
+  </si>
+  <si>
+    <t>Madeline Joy Sastoyo</t>
+  </si>
+  <si>
+    <t>Komp. Parahyangan Rumah Vila B 30B</t>
+  </si>
+  <si>
+    <t>Heri Sastoyo Rasito</t>
+  </si>
+  <si>
+    <t>Frieda Natalia</t>
+  </si>
+  <si>
+    <t>20090104</t>
+  </si>
+  <si>
+    <t>0034362842</t>
+  </si>
+  <si>
+    <t>Madeline Zoya Gunawan</t>
+  </si>
+  <si>
+    <t>TAMAN LINGKAR SELATAN 33</t>
+  </si>
+  <si>
+    <t>IWAN GUNAWAN</t>
+  </si>
+  <si>
+    <t>SUGIARTINI</t>
+  </si>
+  <si>
+    <t>20170902</t>
+  </si>
+  <si>
+    <t>0031798065</t>
+  </si>
+  <si>
+    <t>Marcella Adynne</t>
+  </si>
+  <si>
+    <t>Jl. Mayang Karsa no 8</t>
+  </si>
+  <si>
+    <t>Johan Muliadi Kerta</t>
+  </si>
+  <si>
+    <t>Lisye Aliwinoto</t>
+  </si>
+  <si>
+    <t>20100104</t>
+  </si>
+  <si>
+    <t>0048873862</t>
+  </si>
+  <si>
+    <t>Marcella Richelle</t>
+  </si>
+  <si>
+    <t>Jl. Jingga Cempaka Kidul 7, KBP</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Grace Winarno</t>
+  </si>
+  <si>
+    <t>20130602</t>
+  </si>
+  <si>
+    <t>0027336553</t>
+  </si>
+  <si>
+    <t>Matthew Aurelius Tirta</t>
+  </si>
+  <si>
+    <t>SETRA DUTA LESTARI E2/3</t>
+  </si>
+  <si>
+    <t>FRINAN TIRTA</t>
+  </si>
+  <si>
+    <t>LENNY ISKANDAR</t>
+  </si>
+  <si>
+    <t>20140501</t>
+  </si>
+  <si>
+    <t>0037780323</t>
+  </si>
+  <si>
+    <t>Merlina Christy Setiabudi</t>
+  </si>
+  <si>
+    <t>Istana Regency II No.A2</t>
+  </si>
+  <si>
+    <t>Indra Hartono Setiabudi</t>
+  </si>
+  <si>
+    <t>Jo Mery</t>
+  </si>
+  <si>
+    <t>20051311</t>
+  </si>
+  <si>
+    <t>0024664412</t>
+  </si>
+  <si>
+    <t>Michael Hartono</t>
+  </si>
+  <si>
+    <t>JL JINGGA MENAK 7, TATAR JINGGA NEGARA, KBP</t>
+  </si>
+  <si>
+    <t>HARTONO WIYANTO</t>
+  </si>
+  <si>
+    <t>SUMIATI</t>
+  </si>
+  <si>
+    <t>20061302</t>
+  </si>
+  <si>
+    <t>0021748942</t>
+  </si>
+  <si>
+    <t>Mikaela Ariana Christabel</t>
+  </si>
+  <si>
+    <t>KOMP PARAHYANGAN RUMAH VILLA A-104</t>
+  </si>
+  <si>
+    <t>YOHANES CAHYO WIBOWO</t>
+  </si>
+  <si>
+    <t>ANITA KRISTIANINGSIH</t>
+  </si>
+  <si>
+    <t>20090105</t>
+  </si>
+  <si>
+    <t>0026782905</t>
+  </si>
+  <si>
+    <t>Mikha Julius Santoso</t>
+  </si>
+  <si>
+    <t>JL RATNA PAKSI 9, TATAR RATNASASIH</t>
+  </si>
+  <si>
+    <t>20071318</t>
+  </si>
+  <si>
+    <t>0048499150</t>
+  </si>
+  <si>
+    <t>Narumi Surya Tirtana</t>
+  </si>
+  <si>
+    <t>LARANG SETRA NO.3</t>
+  </si>
+  <si>
+    <t>Edy Tirtana Tutisna</t>
+  </si>
+  <si>
+    <t>Evi Lusita Hermawan</t>
+  </si>
+  <si>
+    <t>20071319</t>
+  </si>
+  <si>
+    <t>0045412761</t>
+  </si>
+  <si>
+    <t>Natan Serafino Sitorus</t>
+  </si>
+  <si>
+    <t>Jl. Ratna Paksi 6 KBP</t>
+  </si>
+  <si>
+    <t>Edrianto Sitorus</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>20061418</t>
+  </si>
+  <si>
+    <t>0024062108</t>
+  </si>
+  <si>
+    <t>Nathan Lawira</t>
+  </si>
+  <si>
+    <t>SUMBER SUGIH 14   8</t>
+  </si>
+  <si>
+    <t>LAU ANTHONY LAWIRA</t>
+  </si>
+  <si>
+    <t>YOFIANA</t>
+  </si>
+  <si>
+    <t>20061313</t>
+  </si>
+  <si>
+    <t>0027981119</t>
+  </si>
+  <si>
+    <t>Nathan Lesmana</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>MEKAR RAHARJA II/22 ; Mekar Wangi</t>
+  </si>
+  <si>
+    <t>DEDY DJUNAEDY LESMANA</t>
+  </si>
+  <si>
+    <t>LINA KUSNADI</t>
+  </si>
+  <si>
+    <t>20081505</t>
+  </si>
+  <si>
+    <t>0029537709</t>
+  </si>
+  <si>
+    <t>Nathanael Wijaya Saputra</t>
+  </si>
+  <si>
+    <t>JL SUKAJADI 88</t>
+  </si>
+  <si>
+    <t>HANJAYA SAPUTRA</t>
+  </si>
+  <si>
+    <t>HELINA YUSANTI</t>
+  </si>
+  <si>
+    <t>20071414</t>
+  </si>
+  <si>
+    <t>0033245153</t>
+  </si>
+  <si>
+    <t>Neal Sebastian Chandra</t>
+  </si>
+  <si>
+    <t>JL LARANG ASRI 12</t>
+  </si>
+  <si>
+    <t>ADE CHANDRA</t>
+  </si>
+  <si>
+    <t>MEILI RUSLI</t>
+  </si>
+  <si>
+    <t>20091504</t>
+  </si>
+  <si>
+    <t>0031262612</t>
+  </si>
+  <si>
+    <t>Nelson Timothy Tjahyadi</t>
+  </si>
+  <si>
+    <t>Jl. Tarumanagara Timur 49, Singgasana Pradana</t>
+  </si>
+  <si>
+    <t>Jonky Tjahyadi</t>
+  </si>
+  <si>
+    <t>Lanny Maulana Sofyan</t>
+  </si>
+  <si>
+    <t>20071320</t>
+  </si>
+  <si>
+    <t>0049296599</t>
+  </si>
+  <si>
+    <t>Nicholas Adam</t>
+  </si>
+  <si>
+    <t>Jl. Ratna Kencana 19 KBP</t>
+  </si>
+  <si>
+    <t>Audy Kusnadjaja</t>
+  </si>
+  <si>
+    <t>Ria Nirwana</t>
+  </si>
+  <si>
+    <t>20081410</t>
+  </si>
+  <si>
+    <t>0047823666</t>
+  </si>
+  <si>
+    <t>Nicholas Cedric Cornelius</t>
+  </si>
+  <si>
+    <t>Buddhist</t>
+  </si>
+  <si>
+    <t>Jl. Taman Kopo Indah I-C26</t>
+  </si>
+  <si>
+    <t>Wiwie</t>
+  </si>
+  <si>
+    <t>Lanny Herawati</t>
+  </si>
+  <si>
+    <t>20071321</t>
+  </si>
+  <si>
+    <t>0048401421</t>
+  </si>
+  <si>
+    <t>Nicole Abigail Darmawan</t>
+  </si>
+  <si>
+    <t>Jl. Wangsa Kencana 16 KBP</t>
+  </si>
+  <si>
+    <t>Abadi Kusnanto</t>
+  </si>
+  <si>
+    <t>Nilawati Suparlim</t>
+  </si>
+  <si>
+    <t>20071322</t>
+  </si>
+  <si>
+    <t>0041826351</t>
+  </si>
+  <si>
+    <t>Olivia Ernestine Alexander</t>
+  </si>
+  <si>
+    <t>Palembang</t>
+  </si>
+  <si>
+    <t>Jl. Larang Agung 18 Tatar Larangtapa KBP</t>
+  </si>
+  <si>
+    <t>G. Casey Alexander W.</t>
+  </si>
+  <si>
+    <t>Lince Noveyanti</t>
+  </si>
+  <si>
+    <t>20061404</t>
+  </si>
+  <si>
+    <t>0025063127</t>
+  </si>
+  <si>
+    <t>Oliviera Priscilla</t>
+  </si>
+  <si>
+    <t>ROSA SAMINI SUKIRDJADJAJA</t>
+  </si>
+  <si>
+    <t>20160801</t>
+  </si>
+  <si>
+    <t>0012926526</t>
+  </si>
+  <si>
+    <t>Park Jun Yi</t>
+  </si>
+  <si>
+    <t>Jl. Jingga Kusuma Kulon 14</t>
+  </si>
+  <si>
+    <t>Lee Jung A</t>
+  </si>
+  <si>
+    <t>20071323</t>
+  </si>
+  <si>
+    <t>0047105000</t>
+  </si>
+  <si>
+    <t>Peter Ryan Raozen</t>
+  </si>
+  <si>
+    <t>Jl. Batununggal Mulia 2/18</t>
+  </si>
+  <si>
+    <t>Richard Raozen</t>
+  </si>
+  <si>
+    <t>Hellen Muliawan</t>
+  </si>
+  <si>
+    <t>20130502</t>
+  </si>
+  <si>
+    <t>0034118484</t>
+  </si>
+  <si>
+    <t>Prins Dylan Mochran</t>
+  </si>
+  <si>
+    <t>JL. KIDANG PANANJUNG NO.51</t>
+  </si>
+  <si>
+    <t>Lily Puspadewi Kurniawan</t>
+  </si>
+  <si>
+    <t>Daurie Mochran</t>
+  </si>
+  <si>
+    <t>20100105</t>
+  </si>
+  <si>
+    <t>0048952079</t>
+  </si>
+  <si>
+    <t>Priska Adriana</t>
+  </si>
+  <si>
+    <t>Jl. Pitarani 16 KBP</t>
+  </si>
+  <si>
+    <t>Medhi Widjaja</t>
+  </si>
+  <si>
+    <t>Ruth Paulina</t>
+  </si>
+  <si>
+    <t>20061315</t>
+  </si>
+  <si>
+    <t>0025488017</t>
+  </si>
+  <si>
+    <t>Rachel Melynda</t>
+  </si>
+  <si>
+    <t>JL SETRADUTA HEGAR J3/I</t>
+  </si>
+  <si>
+    <t>STEFANUS CHARLES S</t>
+  </si>
+  <si>
+    <t>LILY TASMAN</t>
+  </si>
+  <si>
+    <t>20071324</t>
+  </si>
+  <si>
+    <t>0045984294</t>
+  </si>
+  <si>
+    <t>Rafferty Hugo</t>
+  </si>
+  <si>
+    <t>Jl. Kopo Sari I/2A (Kopo Sari 529)</t>
+  </si>
+  <si>
+    <t>Robi Gunawan</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>20160703</t>
+  </si>
+  <si>
+    <t>0044977225</t>
+  </si>
+  <si>
+    <t>Ray Christopher</t>
+  </si>
+  <si>
+    <t>Jl. Kopo Bihbul Gg. pak Onit 3 No. 123</t>
+  </si>
+  <si>
+    <t>Arifin</t>
+  </si>
+  <si>
+    <t>Puspita Dewi</t>
+  </si>
+  <si>
+    <t>20071415</t>
+  </si>
+  <si>
+    <t>0039669199</t>
+  </si>
+  <si>
+    <t>Raynard Elleazar</t>
+  </si>
+  <si>
+    <t>JL.BATUNUNGGAL ABADI V/17</t>
+  </si>
+  <si>
+    <t>FREDDY INDRAWAN SADELI</t>
+  </si>
+  <si>
+    <t>KEZIA LUCINDA LEE</t>
+  </si>
+  <si>
+    <t>20090202</t>
+  </si>
+  <si>
+    <t>0022127551</t>
+  </si>
+  <si>
+    <t>Raynard Rafferty</t>
+  </si>
+  <si>
+    <t>JL RAMBUT SETRA 12, TATAR RAMBUTKASIH, KBP</t>
+  </si>
+  <si>
+    <t>RAYMONDY JAYA</t>
+  </si>
+  <si>
+    <t>LIM MEI TJUN</t>
+  </si>
+  <si>
+    <t>20071416</t>
+  </si>
+  <si>
+    <t>0027366663</t>
+  </si>
+  <si>
+    <t>Revio Seviano Sasmito</t>
+  </si>
+  <si>
+    <t>JL WANGSA SETRA WETAN 12</t>
+  </si>
+  <si>
+    <t>JANIKA SASMITO</t>
+  </si>
+  <si>
+    <t>AUGUSTRIA HARININGTIAS</t>
+  </si>
+  <si>
+    <t>20080104</t>
+  </si>
+  <si>
+    <t>0024967598</t>
+  </si>
+  <si>
+    <t>Richard Alexander Fedora Yoshuara</t>
+  </si>
+  <si>
+    <t>JL PITAJAYA12, TATAR PITALOKA, KBP</t>
+  </si>
+  <si>
+    <t>HANDY KERTARAHARJA, YO</t>
+  </si>
+  <si>
+    <t>NATALIA AVIONIKA RINDJAJANI</t>
+  </si>
+  <si>
+    <t>20071325</t>
+  </si>
+  <si>
+    <t>0043767343</t>
+  </si>
+  <si>
+    <t>River Zoe</t>
+  </si>
+  <si>
+    <t>Jl. Rebana 21</t>
+  </si>
+  <si>
+    <t>Jossy Mashary</t>
+  </si>
+  <si>
+    <t>Sri Lumiarti</t>
+  </si>
+  <si>
+    <t>20051314</t>
+  </si>
+  <si>
+    <t>0025922446</t>
+  </si>
+  <si>
+    <t>Rowie Samuel Tedja</t>
+  </si>
+  <si>
+    <t>SMAK 1 BPK Penabur</t>
+  </si>
+  <si>
+    <t>PARAKAN RESIK 31</t>
+  </si>
+  <si>
+    <t>ROY IBRAHIM TEDJA</t>
+  </si>
+  <si>
+    <t>WISYE LANGKUN</t>
+  </si>
+  <si>
+    <t>20061419</t>
+  </si>
+  <si>
+    <t>0026142281</t>
+  </si>
+  <si>
+    <t>Satria Fernando Viery</t>
+  </si>
+  <si>
+    <t>JL JINGGA KUSUMA KULON 21, TATAR JINGGA NEGARA, KBP</t>
+  </si>
+  <si>
+    <t>YOGI WIWOHO, SE, AK, MM</t>
+  </si>
+  <si>
+    <t>MELIYANNA</t>
+  </si>
+  <si>
+    <t>20150601</t>
+  </si>
+  <si>
+    <t>3029838352</t>
+  </si>
+  <si>
+    <t>Seo Ha Jeong</t>
+  </si>
+  <si>
+    <t>Jl. Jingga Menak 22</t>
+  </si>
+  <si>
+    <t>Kim Hyo Young</t>
+  </si>
+  <si>
+    <t>20061406</t>
+  </si>
+  <si>
+    <t>0028024676</t>
+  </si>
+  <si>
+    <t>Sergio Alvaro</t>
+  </si>
+  <si>
+    <t>JL SUKAMULYA INDAH 10   1C</t>
+  </si>
+  <si>
+    <t>GUNAWAN SASTRAWIDJAJA</t>
+  </si>
+  <si>
+    <t>YULIANI AGUSTINE</t>
+  </si>
+  <si>
+    <t>20061317</t>
+  </si>
+  <si>
+    <t>0039853473</t>
+  </si>
+  <si>
+    <t>Shannon Adeline Wijaya</t>
+  </si>
+  <si>
+    <t>JL MEKAR ABADI 3A</t>
+  </si>
+  <si>
+    <t>BUDIANTO WIJAYA</t>
+  </si>
+  <si>
+    <t>RINA</t>
+  </si>
+  <si>
+    <t>20051315</t>
+  </si>
+  <si>
+    <t>0018723401</t>
+  </si>
+  <si>
+    <t>Shannon Hartono</t>
+  </si>
+  <si>
+    <t>JL CIBADAK 250</t>
+  </si>
+  <si>
+    <t>20171001</t>
+  </si>
+  <si>
+    <t>0025493093</t>
+  </si>
+  <si>
+    <t>Shanon Eden Ariella</t>
+  </si>
+  <si>
+    <t>SMP Bintang Mulia</t>
+  </si>
+  <si>
+    <t>TAMAN KOPO INDAH II BLOK 3A NO. 136</t>
+  </si>
+  <si>
+    <t>DAVIT SUMANTRI</t>
+  </si>
+  <si>
+    <t>LIE, SILVIA</t>
+  </si>
+  <si>
+    <t>20081414</t>
+  </si>
+  <si>
+    <t>0038208471</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Jl. Pita Paksi 10 KBP</t>
+  </si>
+  <si>
+    <t>Desylina Djajaputra</t>
+  </si>
+  <si>
+    <t>Aris Sukmawijaya</t>
+  </si>
+  <si>
+    <t>20071326</t>
+  </si>
+  <si>
+    <t>0042821928</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Jl. Jinggamenak 24 KBP</t>
+  </si>
+  <si>
+    <t>Hasan</t>
+  </si>
+  <si>
+    <t>Sansan</t>
+  </si>
+  <si>
+    <t>20091505</t>
+  </si>
+  <si>
+    <t>0037523989</t>
+  </si>
+  <si>
+    <t>Sue Ellen Alicia Pangestu</t>
+  </si>
+  <si>
+    <t>Jl. Srigunting Timur 8, Komp Dadali</t>
+  </si>
+  <si>
+    <t>Andrew Pangestu</t>
+  </si>
+  <si>
+    <t>Susyana Winardy</t>
+  </si>
+  <si>
+    <t>20061319</t>
+  </si>
+  <si>
+    <t>0031108750</t>
+  </si>
+  <si>
+    <t>Thalia Amarissa</t>
+  </si>
+  <si>
+    <t>BATUNUNGGAL SENTOSA II/37</t>
+  </si>
+  <si>
+    <t>SUGANDI BUNJAMIN</t>
+  </si>
+  <si>
+    <t>RETNO DHAMARJATI</t>
+  </si>
+  <si>
+    <t>20061421</t>
+  </si>
+  <si>
+    <t>0021906340</t>
+  </si>
+  <si>
+    <t>Timothy Petra Aletheia</t>
+  </si>
+  <si>
+    <t>JL WANGSA NINGRAT 46, TATAR WANGSAKERTA, KBP</t>
+  </si>
+  <si>
+    <t>BENY SUPRAPSONO</t>
+  </si>
+  <si>
+    <t>ANITA GUNAWAN SE</t>
+  </si>
+  <si>
+    <t>20061320</t>
+  </si>
+  <si>
+    <t>0029758124</t>
+  </si>
+  <si>
+    <t>Vanessa Harijanto</t>
+  </si>
+  <si>
+    <t>JL RAMBUT ENDAH 15</t>
+  </si>
+  <si>
+    <t>WIDJAJA HARIJANTO</t>
+  </si>
+  <si>
+    <t>INGE LISTIADI</t>
+  </si>
+  <si>
+    <t>20061407</t>
+  </si>
+  <si>
+    <t>0023235102</t>
+  </si>
+  <si>
+    <t>Verren Carenita Halim</t>
+  </si>
+  <si>
+    <t>LEMBAH BAJURI 22</t>
+  </si>
+  <si>
+    <t>STEPHANUS ANTON HALIM</t>
+  </si>
+  <si>
+    <t>SUSAN IMELYA HANAM</t>
+  </si>
+  <si>
+    <t>20090106</t>
+  </si>
+  <si>
+    <t>0034366270</t>
+  </si>
+  <si>
+    <t>Vincent Tan Prayitno</t>
+  </si>
+  <si>
+    <t>JL RAMBUT SETRA 5</t>
+  </si>
+  <si>
+    <t>HERU PRAYITNO</t>
+  </si>
+  <si>
+    <t>BERNADETTE LASTUTI</t>
+  </si>
+  <si>
+    <t>20071330</t>
+  </si>
+  <si>
+    <t>0032065417</t>
+  </si>
+  <si>
+    <t>William Kurniawan</t>
+  </si>
+  <si>
+    <t>Jl. Kebon Kelapa 9</t>
+  </si>
+  <si>
+    <t>Iwan Kurniawan Arifinrachmat</t>
+  </si>
+  <si>
+    <t>Bernike Adiwidjaja</t>
+  </si>
+  <si>
+    <t>20061321</t>
+  </si>
+  <si>
+    <t>0038463813</t>
+  </si>
+  <si>
+    <t>Zoe Heinz</t>
+  </si>
+  <si>
+    <t>JL REBANA 21</t>
+  </si>
+  <si>
+    <t>SANDY NOVIANTO</t>
+  </si>
+  <si>
+    <t>JOVY</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>NIPD</t>
+  </si>
+  <si>
+    <t>POB</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Pekerjaan</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
-    <t>SMP Cahaya Bangsa Classical School</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Jl. Budi Asih I/21</t>
-  </si>
-  <si>
-    <t>Christian Lesmana</t>
-  </si>
-  <si>
-    <t>Wiraswasta</t>
-  </si>
-  <si>
-    <t>Merlinda Hie</t>
-  </si>
-  <si>
-    <t>Tidak bekerja</t>
-  </si>
-  <si>
-    <t>20081401</t>
-  </si>
-  <si>
-    <t>0029807545</t>
-  </si>
-  <si>
-    <t>Alexander Davis</t>
-  </si>
-  <si>
-    <t>BANDUNG</t>
-  </si>
-  <si>
-    <t>Catholic</t>
-  </si>
-  <si>
-    <t>Jl. Nagawarna No. 16 Tatar Naganingrum KBP</t>
-  </si>
-  <si>
-    <t>Lukas Djunaidi Tjandra</t>
-  </si>
-  <si>
-    <t>Karyawan Swasta</t>
-  </si>
-  <si>
-    <t>Felesia Fanty</t>
-  </si>
-  <si>
-    <t>20061408</t>
-  </si>
-  <si>
-    <t>0028427357</t>
-  </si>
-  <si>
-    <t>Alexandra Evelyne Wijaya</t>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>Sukarasa</t>
+  </si>
+  <si>
+    <t>Kec. Padalarang</t>
+  </si>
+  <si>
+    <t>Katholik</t>
+  </si>
+  <si>
+    <t>Sukamenak</t>
+  </si>
+  <si>
+    <t>ALEXANDRA EVELYNE WIJAYA</t>
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>JL LARANG SETRA 15, TATAR LARANGTAPA, KBP</t>
-  </si>
-  <si>
-    <t>YOHANES ADHITYA WIJAYA</t>
-  </si>
-  <si>
-    <t>KATARINA YOLIS ALVIONITA</t>
-  </si>
-  <si>
-    <t>20061416</t>
-  </si>
-  <si>
-    <t>0029862167</t>
-  </si>
-  <si>
-    <t>Angeline Florence Hermanus</t>
-  </si>
-  <si>
-    <t>JL JINGGA LAKSANA WETAN 38, TATAR JINGGANAGARA, KBP</t>
-  </si>
-  <si>
-    <t>DAVY RONALD HERMANUS</t>
-  </si>
-  <si>
-    <t>PAULIN TOBING HERMANUS</t>
-  </si>
-  <si>
-    <t>Lainnya</t>
-  </si>
-  <si>
-    <t>20071501</t>
-  </si>
-  <si>
-    <t>0025829670</t>
-  </si>
-  <si>
-    <t>Aurelia Sherrylin Rosanne</t>
-  </si>
-  <si>
-    <t>JL LARANG PUSPA  10, TATAR LARANGTAPA, KBP</t>
-  </si>
-  <si>
-    <t>RONNY KARIM</t>
-  </si>
-  <si>
-    <t>TASANA</t>
-  </si>
-  <si>
-    <t>20051301</t>
-  </si>
-  <si>
-    <t>0029026071</t>
-  </si>
-  <si>
-    <t>Beatrice Alvina Sugiarto</t>
-  </si>
-  <si>
-    <t>JL BATIK KUMELI 74</t>
-  </si>
-  <si>
-    <t>OENTUNG SUGIARTO</t>
-  </si>
-  <si>
-    <t>Wirausaha</t>
-  </si>
-  <si>
-    <t>DEWI RATNA IRAWATI BUDI HARJANTO</t>
-  </si>
-  <si>
-    <t>20071402</t>
-  </si>
-  <si>
-    <t>0029076274</t>
-  </si>
-  <si>
-    <t>Beatrix Eugenia Suriadi Halim</t>
-  </si>
-  <si>
-    <t>Bandung</t>
-  </si>
-  <si>
-    <t>JL RANCA BENTANG 12A</t>
-  </si>
-  <si>
-    <t>DAUD SURIADI HALIM</t>
-  </si>
-  <si>
-    <t>LULU NATALIA K</t>
-  </si>
-  <si>
-    <t>20061322</t>
-  </si>
-  <si>
-    <t>0034266824</t>
-  </si>
-  <si>
-    <t>Brian Adriel Hirianto</t>
-  </si>
-  <si>
-    <t>JL CEMARA 79</t>
-  </si>
-  <si>
-    <t>ANDI GINARDI HIRIANTO</t>
-  </si>
-  <si>
-    <t>MARLENE ESMERALDA SUPONO</t>
-  </si>
-  <si>
-    <t>20150801</t>
-  </si>
-  <si>
-    <t>0023689638</t>
-  </si>
-  <si>
-    <t>Bryan Joseph Michael Silitonga</t>
-  </si>
-  <si>
-    <t>Jingga Waluya No 5, KBP</t>
-  </si>
-  <si>
-    <t>NANGKOK LAMPATAR SILITONGA</t>
-  </si>
-  <si>
-    <t>SLAMET UTAMI</t>
-  </si>
-  <si>
-    <t>20081402</t>
-  </si>
-  <si>
-    <t>0042909302</t>
-  </si>
-  <si>
-    <t>Calvin Theodore Gani</t>
-  </si>
-  <si>
-    <t>Jl. Buana Indah I/22</t>
-  </si>
-  <si>
-    <t>Rubijanto Gani</t>
-  </si>
-  <si>
-    <t>Leny Muljadi</t>
-  </si>
-  <si>
-    <t>20100101</t>
-  </si>
-  <si>
-    <t>0048650882</t>
-  </si>
-  <si>
-    <t>Carissa Angelique</t>
-  </si>
-  <si>
-    <t>Jl. Leuwi Gajah 249</t>
-  </si>
-  <si>
-    <t>Petrus Persadanta Sitepu</t>
-  </si>
-  <si>
-    <t>Lily Fransisca Ginting</t>
-  </si>
-  <si>
-    <t>20100102</t>
-  </si>
-  <si>
-    <t>0038019927</t>
-  </si>
-  <si>
-    <t>Catherine Aurelia Tirta</t>
-  </si>
-  <si>
-    <t>Jl. Setra Duta Lestari E2/3</t>
-  </si>
-  <si>
-    <t>Frinan Tirta</t>
-  </si>
-  <si>
-    <t>Lenny Iskandar</t>
-  </si>
-  <si>
-    <t>20130504</t>
-  </si>
-  <si>
-    <t>0031250310</t>
-  </si>
-  <si>
-    <t>Cheryl Jocelyn Yogasara</t>
-  </si>
-  <si>
-    <t>JL INTAN PERMATA A/2</t>
-  </si>
-  <si>
-    <t>TJENDEKIA YOGASARA</t>
-  </si>
-  <si>
-    <t>VERA NATALIA DANUBRATA</t>
-  </si>
-  <si>
-    <t>20051303</t>
-  </si>
-  <si>
-    <t>0019956667</t>
-  </si>
-  <si>
-    <t>Chrissy Malinda</t>
-  </si>
-  <si>
-    <t>JL LEMBAH SUKARESMI II/8</t>
-  </si>
-  <si>
-    <t>WAHYU IRNAWARMAN</t>
-  </si>
-  <si>
-    <t>LUCYKE TIRTA</t>
-  </si>
-  <si>
-    <t>20170901</t>
-  </si>
-  <si>
-    <t>0035582161</t>
-  </si>
-  <si>
-    <t>Christian Lawrence Lana Raton</t>
-  </si>
-  <si>
-    <t>Filipina</t>
-  </si>
-  <si>
-    <t>Jl. Nagawijaya Wetan no 7</t>
-  </si>
-  <si>
-    <t>Lailani Lana Raton</t>
-  </si>
-  <si>
-    <t>20100103</t>
-  </si>
-  <si>
-    <t>0037240295</t>
-  </si>
-  <si>
-    <t>Christofer Bunyamin</t>
-  </si>
-  <si>
-    <t>Jl. Astanaanyar 87</t>
-  </si>
-  <si>
-    <t>Yuki Samsul</t>
-  </si>
-  <si>
-    <t>Ani Susilowati</t>
-  </si>
-  <si>
-    <t>20061413</t>
-  </si>
-  <si>
-    <t>0028366667</t>
-  </si>
-  <si>
-    <t>Christopher Alexander Santoso</t>
-  </si>
-  <si>
-    <t>JL LARANGSETRA  29, TATAR LARANGTAPA, KBP</t>
-  </si>
-  <si>
-    <t>IWAN SANTOSO HENDARTO</t>
-  </si>
-  <si>
-    <t>LISA GUNAWAN</t>
-  </si>
-  <si>
-    <t>20091502</t>
-  </si>
-  <si>
-    <t>0031682213</t>
-  </si>
-  <si>
-    <t>Clarissa Audrey Jonathan</t>
-  </si>
-  <si>
-    <t>Purwakarta</t>
-  </si>
-  <si>
-    <t>Jl. Jinggawijaya Kulon 40  KBP</t>
-  </si>
-  <si>
-    <t>Jonatan</t>
-  </si>
-  <si>
-    <t>Christine</t>
-  </si>
-  <si>
-    <t>20061304</t>
-  </si>
-  <si>
-    <t>0037981220</t>
-  </si>
-  <si>
-    <t>Daniel Ronan</t>
-  </si>
-  <si>
-    <t>JL JATIHANDAP 104</t>
-  </si>
-  <si>
-    <t>RONNIE ROG</t>
-  </si>
-  <si>
-    <t>RISTIANTI</t>
-  </si>
-  <si>
-    <t>20130601</t>
-  </si>
-  <si>
-    <t>0025493065</t>
-  </si>
-  <si>
-    <t>Darien</t>
-  </si>
-  <si>
-    <t>TAMAN MIMOSA 43, TAMAN SAKURA</t>
-  </si>
-  <si>
-    <t>THOMAS GOZALI</t>
-  </si>
-  <si>
-    <t>LINGGAWATI LILY</t>
-  </si>
-  <si>
-    <t>20081501</t>
-  </si>
-  <si>
-    <t>0024209736</t>
-  </si>
-  <si>
-    <t>Dave Adriel Khuana</t>
-  </si>
-  <si>
-    <t>JL SETRADUTA GREEN TERRACE 12</t>
-  </si>
-  <si>
-    <t>SANDY JUSAK KHUANA</t>
-  </si>
-  <si>
-    <t>DEBBIE ERYSIANA CHRISTIAN</t>
-  </si>
-  <si>
-    <t>20081403</t>
-  </si>
-  <si>
-    <t>0031248243</t>
-  </si>
-  <si>
-    <t>Devin Derrick Filistin</t>
-  </si>
-  <si>
-    <t>Jl. Setiabudi 344</t>
-  </si>
-  <si>
-    <t>Hendra Filistin</t>
-  </si>
-  <si>
-    <t>Yulianti Setiady</t>
-  </si>
-  <si>
-    <t>20081404</t>
-  </si>
-  <si>
-    <t>0036463216</t>
-  </si>
-  <si>
-    <t>Earron Keane Woen</t>
-  </si>
-  <si>
-    <t>Perum Taman Anggrek 31</t>
-  </si>
-  <si>
-    <t>Fiandi Ha</t>
-  </si>
-  <si>
-    <t>Krisnayani</t>
-  </si>
-  <si>
-    <t>20081502</t>
-  </si>
-  <si>
-    <t>0029835479</t>
-  </si>
-  <si>
-    <t>Edward Sutanto</t>
-  </si>
-  <si>
-    <t>TAMAN LINGKAR SELATAN 5</t>
-  </si>
-  <si>
-    <t>MARKIN SUTANTO</t>
-  </si>
-  <si>
-    <t>MARCELINA CAHYADI</t>
-  </si>
-  <si>
-    <t>20130401</t>
-  </si>
-  <si>
-    <t>0042629389</t>
-  </si>
-  <si>
-    <t>Ethan Augustine Khoe Lie</t>
-  </si>
-  <si>
-    <t>PLANO, TEXAS, USA</t>
-  </si>
-  <si>
-    <t>JL. DEWI SRI NO.2</t>
-  </si>
-  <si>
-    <t>YULIUS LIE</t>
-  </si>
-  <si>
-    <t>HANNY KOSWARA</t>
-  </si>
-  <si>
-    <t>20061306</t>
-  </si>
-  <si>
-    <t>0024622426</t>
-  </si>
-  <si>
-    <t>Ethan Elnathan Mathias</t>
-  </si>
-  <si>
-    <t>JL BANYAK LAGA 10, TATAR BANYAK SUMBA, KBP</t>
-  </si>
-  <si>
-    <t>JOSMAN MATHIAS RESFIANTO</t>
-  </si>
-  <si>
-    <t>LIDIANA SUHERMAN</t>
-  </si>
-  <si>
-    <t>20051318</t>
-  </si>
-  <si>
-    <t>0024606264</t>
-  </si>
-  <si>
-    <t>Ezra Joywilar</t>
-  </si>
-  <si>
-    <t>Jl. Batununggal Lestari II no 5</t>
-  </si>
-  <si>
-    <t>WILLY THEODORUS</t>
-  </si>
-  <si>
-    <t>ARLENE</t>
-  </si>
-  <si>
-    <t>LINGGIARTI</t>
-  </si>
-  <si>
-    <t>Pensiunan</t>
-  </si>
-  <si>
-    <t>20071404</t>
-  </si>
-  <si>
-    <t>0036447590</t>
-  </si>
-  <si>
-    <t>Favian Gerard</t>
-  </si>
-  <si>
-    <t>JL PUNGKUR 102</t>
-  </si>
-  <si>
-    <t>Darwan Astono</t>
-  </si>
-  <si>
-    <t>ROSA SAMINI</t>
-  </si>
-  <si>
-    <t>20061414</t>
-  </si>
-  <si>
-    <t>0025406051</t>
-  </si>
-  <si>
-    <t>Febiola Gladys Landau</t>
-  </si>
-  <si>
-    <t>JL RAMBUT KENCANA 1, TATAR RAMBUTKASIH, KBP</t>
-  </si>
-  <si>
-    <t>ANDRYANTO ADI UTAMA</t>
-  </si>
-  <si>
-    <t>SUSANA HASAN</t>
-  </si>
-  <si>
-    <t>20071303</t>
-  </si>
-  <si>
-    <t>0044677266</t>
-  </si>
-  <si>
-    <t>Felicia Cordelia Ruslim</t>
-  </si>
-  <si>
-    <t>Jl. Kembar Mas Barat 4</t>
-  </si>
-  <si>
-    <t>Pujianto</t>
-  </si>
-  <si>
-    <t>Agustin</t>
-  </si>
-  <si>
-    <t>20170802</t>
-  </si>
-  <si>
-    <t>3035827398</t>
-  </si>
-  <si>
-    <t>Fredie Scott Lana Raton</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Jl. Naga Wetan 7</t>
-  </si>
-  <si>
-    <t>20090102</t>
-  </si>
-  <si>
-    <t>0021640076</t>
-  </si>
-  <si>
-    <t>Grace Julia Santoso</t>
-  </si>
-  <si>
-    <t>JL RATNA AGUNG no 11, TATAR RATNASASIH, KBP</t>
-  </si>
-  <si>
-    <t>TJAHJA SANTOSO</t>
-  </si>
-  <si>
-    <t>DIANA FITRI WIDYA SARI</t>
-  </si>
-  <si>
-    <t>20170801</t>
-  </si>
-  <si>
-    <t>0042091063</t>
-  </si>
-  <si>
-    <t>Harminwan</t>
-  </si>
-  <si>
-    <t>JAKARTA</t>
-  </si>
-  <si>
-    <t>Bukit Bogor Raya Blok I. 20 / 19</t>
-  </si>
-  <si>
-    <t>Tjen Po Jun</t>
-  </si>
-  <si>
-    <t>DESSY INDAWATI</t>
-  </si>
-  <si>
-    <t>20130405</t>
-  </si>
-  <si>
-    <t>0039895667</t>
-  </si>
-  <si>
-    <t>Hyun Sik Yoon</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>Jl. Jingga Wijaya 28</t>
-  </si>
-  <si>
-    <t>Soo Jung Kim</t>
-  </si>
-  <si>
-    <t>20071306</t>
-  </si>
-  <si>
-    <t>0046481030</t>
-  </si>
-  <si>
-    <t>Ivana Priscilla Sugiarto</t>
-  </si>
-  <si>
-    <t>Jl. Batik Kumeli 74</t>
-  </si>
-  <si>
-    <t>Oentung Sugiarto</t>
-  </si>
-  <si>
-    <t>Dewi Ratna Irawati</t>
-  </si>
-  <si>
-    <t>20090103</t>
-  </si>
-  <si>
-    <t>0038569316</t>
-  </si>
-  <si>
-    <t>Janice</t>
-  </si>
-  <si>
-    <t>JL CIBADAK 312</t>
-  </si>
-  <si>
-    <t>BUDI YOGISAPUTRA</t>
-  </si>
-  <si>
-    <t>YANI HARYANI SUTRISNA</t>
-  </si>
-  <si>
-    <t>20071308</t>
-  </si>
-  <si>
-    <t>0048323399</t>
-  </si>
-  <si>
-    <t>Janice Elysia</t>
-  </si>
-  <si>
-    <t>Jl. Mayang Sekar 1 Tatar Mayangsunda KBP</t>
-  </si>
-  <si>
-    <t>Eksanto</t>
-  </si>
-  <si>
-    <t>Lie Lily</t>
-  </si>
-  <si>
-    <t>20080103</t>
-  </si>
-  <si>
-    <t>0021966852</t>
-  </si>
-  <si>
-    <t>Jansen Christopher Yuanda</t>
-  </si>
-  <si>
-    <t>JL KEMBAR MAS II/3</t>
-  </si>
-  <si>
-    <t>IKING YUANDA</t>
-  </si>
-  <si>
-    <t>KURNIASIH BAKRUN</t>
-  </si>
-  <si>
-    <t>20130403</t>
-  </si>
-  <si>
-    <t>0040635176</t>
-  </si>
-  <si>
-    <t>Jasmine Widjaja</t>
-  </si>
-  <si>
-    <t>JL. LARANGSETRA NO.16</t>
-  </si>
-  <si>
-    <t>ABRAHAM ASMIN WIDJAJA</t>
-  </si>
-  <si>
-    <t>ERLIN IMELDA SUTANDI</t>
-  </si>
-  <si>
-    <t>20071406</t>
-  </si>
-  <si>
-    <t>0027423965</t>
-  </si>
-  <si>
-    <t>Jason Sebastian Santoso</t>
-  </si>
-  <si>
-    <t>JL NAGADIGDAYA 14 TATAR NAGANINGRUM</t>
-  </si>
-  <si>
-    <t>TONY B SANTOSO</t>
-  </si>
-  <si>
-    <t>SICILLIA TJAHYADI</t>
-  </si>
-  <si>
-    <t>20081405</t>
-  </si>
-  <si>
-    <t>0048851380</t>
-  </si>
-  <si>
-    <t>Jeden Athera Sutanto</t>
-  </si>
-  <si>
-    <t>Jl. Terusan Sutami I/67E</t>
-  </si>
-  <si>
-    <t>Andrew Sutanto</t>
-  </si>
-  <si>
-    <t>Hermin Suwondo</t>
-  </si>
-  <si>
-    <t>20051306</t>
-  </si>
-  <si>
-    <t>0012963266</t>
-  </si>
-  <si>
-    <t>Jeff Gregory Hartono</t>
-  </si>
-  <si>
-    <t>JL Larang tapa, Kota Baru Parahyangan</t>
-  </si>
-  <si>
-    <t>RUDY HARTONO</t>
-  </si>
-  <si>
-    <t>SUZANA SETIADY</t>
-  </si>
-  <si>
-    <t>20061308</t>
-  </si>
-  <si>
-    <t>0032860365</t>
-  </si>
-  <si>
-    <t>Jennifer Christiana</t>
-  </si>
-  <si>
-    <t>MEKAR RAHARJA I/30</t>
-  </si>
-  <si>
-    <t>ANDI GUNAWAN KARTAWIDJAYA</t>
-  </si>
-  <si>
-    <t>JUNI SHINTALIA SLAMET</t>
-  </si>
-  <si>
-    <t>20071310</t>
-  </si>
-  <si>
-    <t>0043948637</t>
-  </si>
-  <si>
-    <t>Jessica Aurellia Lorenz</t>
-  </si>
-  <si>
-    <t>Perum Taman Lingkar Selatan Blok I/7</t>
-  </si>
-  <si>
-    <t>Halim Surjana</t>
-  </si>
-  <si>
-    <t>Julia Murniati Johanah</t>
-  </si>
-  <si>
-    <t>20160902</t>
-  </si>
-  <si>
-    <t>0020914611</t>
-  </si>
-  <si>
-    <t>Jessica Vania Budiman</t>
-  </si>
-  <si>
-    <t>Yogyakarta</t>
-  </si>
-  <si>
-    <t>Jl. Larang Asri no 29, Kota Baru Parahyangan</t>
-  </si>
-  <si>
-    <t>Dedy Budiman</t>
-  </si>
-  <si>
-    <t>Rina Anatasya Kuswara</t>
-  </si>
-  <si>
-    <t>Juliono Wijaya</t>
-  </si>
-  <si>
-    <t>20071505</t>
-  </si>
-  <si>
-    <t>0029135708</t>
-  </si>
-  <si>
-    <t>Jonathan Wilson Teja Wiguna</t>
-  </si>
-  <si>
-    <t>JL MUARA INDAH I/53</t>
-  </si>
-  <si>
-    <t>TJOA TJE TJIN</t>
-  </si>
-  <si>
-    <t>JONG WEN IE</t>
-  </si>
-  <si>
-    <t>20051307</t>
-  </si>
-  <si>
-    <t>0029883039</t>
-  </si>
-  <si>
-    <t>Joshia Tanumihardja</t>
-  </si>
-  <si>
-    <t>JL WANGSA NINGRAT 26, TATAR WANGSAKERTA, KBP</t>
-  </si>
-  <si>
-    <t>AAN TANUMIHARDJA</t>
-  </si>
-  <si>
-    <t>CORNELIA MARIA REGINA</t>
-  </si>
-  <si>
-    <t>20071312</t>
-  </si>
-  <si>
-    <t>0049845904</t>
-  </si>
-  <si>
-    <t>Joshua Natanael Lim</t>
-  </si>
-  <si>
-    <t>Taman Kopo Indah 2 BLOK I BA NO.22</t>
-  </si>
-  <si>
-    <t>Mulianto Halim</t>
-  </si>
-  <si>
-    <t>Soesilia Indrajani</t>
-  </si>
-  <si>
-    <t>20071311</t>
-  </si>
-  <si>
-    <t>0047831197</t>
-  </si>
-  <si>
-    <t>Joycelyn Tan</t>
-  </si>
-  <si>
-    <t>JL. LARANG SETRA 21 KBP</t>
-  </si>
-  <si>
-    <t>Doddy Tanuwidjaja</t>
-  </si>
-  <si>
-    <t>Yenny Lilie</t>
-  </si>
-  <si>
-    <t>20071313</t>
-  </si>
-  <si>
-    <t>0032144230</t>
-  </si>
-  <si>
-    <t>Kanyasani Desyona</t>
-  </si>
-  <si>
-    <t>Jl. Wangsa Setra Wetan 12 KBP</t>
-  </si>
-  <si>
-    <t>Janika Sasmito</t>
-  </si>
-  <si>
-    <t>Augustria Hariningtias</t>
-  </si>
-  <si>
-    <t>20090201</t>
-  </si>
-  <si>
-    <t>0027548243</t>
-  </si>
-  <si>
-    <t>Karel Dwinugroho Bowosebua</t>
-  </si>
-  <si>
-    <t>JL PONDOK MAS RAYA 42</t>
-  </si>
-  <si>
-    <t>JUTOMO BOWOPRAKOSA</t>
-  </si>
-  <si>
-    <t>TRESYA NOVIANA ZEBUA</t>
-  </si>
-  <si>
-    <t>20061309</t>
-  </si>
-  <si>
-    <t>0029588303</t>
-  </si>
-  <si>
-    <t>Karen Juvanka Ali Djaja</t>
-  </si>
-  <si>
-    <t>JL.KEMBAR TENGAH III No. 9</t>
-  </si>
-  <si>
-    <t>IVAN STEPHANUS ALIDJAJA</t>
-  </si>
-  <si>
-    <t>JUNIARTA ALIDJAJA</t>
-  </si>
-  <si>
-    <t>20051317</t>
-  </si>
-  <si>
-    <t>0021927933</t>
-  </si>
-  <si>
-    <t>Karyeen Kazteny Indrawan</t>
-  </si>
-  <si>
-    <t>JL SAKURA UTAMA 8, TERS. PASIRKOJA</t>
-  </si>
-  <si>
-    <t>INDRAWAN</t>
-  </si>
-  <si>
-    <t>LUSYE</t>
-  </si>
-  <si>
-    <t>20051308</t>
-  </si>
-  <si>
-    <t>0028841506</t>
-  </si>
-  <si>
-    <t>Keisha Amanda Hirianto</t>
-  </si>
-  <si>
-    <t>20130505</t>
-  </si>
-  <si>
-    <t>0027336555</t>
-  </si>
-  <si>
-    <t>Kenneth Manuel Tanuwidjaja</t>
-  </si>
-  <si>
-    <t>JL CIPEDES TENGAH 182A</t>
-  </si>
-  <si>
-    <t>UUNG TANUWIDJAJA</t>
-  </si>
-  <si>
-    <t>JULIA GUNAWAN</t>
-  </si>
-  <si>
-    <t>20061310</t>
-  </si>
-  <si>
-    <t>0035620989</t>
-  </si>
-  <si>
-    <t>Kenneth Samuel Wijaya</t>
-  </si>
-  <si>
-    <t>JL LARANG ASRI 29</t>
-  </si>
-  <si>
-    <t>JULIONO WIJAYA PANGESTU</t>
-  </si>
-  <si>
-    <t>SHINTA BUDIMAN</t>
-  </si>
-  <si>
-    <t>20071314</t>
-  </si>
-  <si>
-    <t>0047308867</t>
-  </si>
-  <si>
-    <t>Kenneth Steptayael Ali Djaja</t>
-  </si>
-  <si>
-    <t>Jl. Kembar Tengah III/9</t>
-  </si>
-  <si>
-    <t>Juniarta Alidjaja</t>
-  </si>
-  <si>
-    <t>20061311</t>
-  </si>
-  <si>
-    <t>0039719225</t>
-  </si>
-  <si>
-    <t>Kenrick Nicholas Honggana</t>
-  </si>
-  <si>
-    <t>JL JEND. A. YANI 543</t>
-  </si>
-  <si>
-    <t>Ir. Lukas</t>
-  </si>
-  <si>
-    <t>EVI CHRISTY</t>
-  </si>
-  <si>
-    <t>20071411</t>
-  </si>
-  <si>
-    <t>0022265512</t>
-  </si>
-  <si>
-    <t>Keren Victoria</t>
-  </si>
-  <si>
-    <t>JL BALADEWA 55</t>
-  </si>
-  <si>
-    <t>BUDHI MULYA TP</t>
-  </si>
-  <si>
-    <t>KWIK SIAUW LAN</t>
-  </si>
-  <si>
-    <t>20130404</t>
-  </si>
-  <si>
-    <t>0047340081</t>
-  </si>
-  <si>
-    <t>Kim Eun Bee</t>
-  </si>
-  <si>
-    <t>CIKARANG</t>
-  </si>
-  <si>
-    <t>JL. WANGSA PRAJA WETAN NO.9</t>
-  </si>
-  <si>
-    <t>KIM DO HUN</t>
-  </si>
-  <si>
-    <t>JEON KYUNG HAE</t>
-  </si>
-  <si>
-    <t>20130501</t>
-  </si>
-  <si>
-    <t>0026869588</t>
-  </si>
-  <si>
-    <t>Kim Hyun Woo</t>
-  </si>
-  <si>
-    <t>Jl. Wangsa Praja Wetan 9</t>
-  </si>
-  <si>
-    <t>Jeon Khung Hae</t>
-  </si>
-  <si>
-    <t>20071412</t>
-  </si>
-  <si>
-    <t>0025623179</t>
-  </si>
-  <si>
-    <t>Kimberly Celina Atmadja</t>
-  </si>
-  <si>
-    <t>JL RATNA KENCANA 45</t>
-  </si>
-  <si>
-    <t>SUBUR ATMADJA JAMIHARDJA</t>
-  </si>
-  <si>
-    <t>LIE FENNY WANGSAWIJAYA</t>
-  </si>
-  <si>
-    <t>20061312</t>
-  </si>
-  <si>
-    <t>0032085485</t>
-  </si>
-  <si>
-    <t>Klemens Justian Liu</t>
-  </si>
-  <si>
-    <t>Jl. Dakota 106 Kav. 12</t>
-  </si>
-  <si>
-    <t>HENDRIKS KOSASIH</t>
-  </si>
-  <si>
-    <t>CHRISTIN</t>
-  </si>
-  <si>
-    <t>20191002</t>
-  </si>
-  <si>
-    <t>0035618599</t>
-  </si>
-  <si>
-    <t>Kristoforus Naidu</t>
-  </si>
-  <si>
-    <t>SMP Bina Bangsa School</t>
-  </si>
-  <si>
-    <t>Jalan Saninten No. 43</t>
-  </si>
-  <si>
-    <t>Agus Wijaya</t>
-  </si>
-  <si>
-    <t>Rameni</t>
-  </si>
-  <si>
-    <t>20081504</t>
-  </si>
-  <si>
-    <t>0038327744</t>
-  </si>
-  <si>
-    <t>Laurentia Vanessa Sutjiadi</t>
-  </si>
-  <si>
-    <t>JL MAYANG PADMI 23</t>
-  </si>
-  <si>
-    <t>YOHAN SUTJIADI</t>
-  </si>
-  <si>
-    <t>FRANSISKA VIVI ARIF</t>
-  </si>
-  <si>
-    <t>20160901</t>
-  </si>
-  <si>
-    <t>0017266326</t>
-  </si>
-  <si>
-    <t>Lee Eun Chae</t>
-  </si>
-  <si>
-    <t>20071316</t>
-  </si>
-  <si>
-    <t>0049958079</t>
-  </si>
-  <si>
-    <t>Madeline Joy Sastoyo</t>
-  </si>
-  <si>
-    <t>Komp. Parahyangan Rumah Vila B 30B</t>
-  </si>
-  <si>
-    <t>Heri Sastoyo Rasito</t>
-  </si>
-  <si>
-    <t>Frieda Natalia</t>
-  </si>
-  <si>
-    <t>20090104</t>
-  </si>
-  <si>
-    <t>0034362842</t>
-  </si>
-  <si>
-    <t>Madeline Zoya Gunawan</t>
-  </si>
-  <si>
-    <t>TAMAN LINGKAR SELATAN 33</t>
-  </si>
-  <si>
-    <t>IWAN GUNAWAN</t>
-  </si>
-  <si>
-    <t>SUGIARTINI</t>
-  </si>
-  <si>
-    <t>20170902</t>
-  </si>
-  <si>
-    <t>0031798065</t>
-  </si>
-  <si>
-    <t>Marcella Adynne</t>
-  </si>
-  <si>
-    <t>Jl. Mayang Karsa no 8</t>
-  </si>
-  <si>
-    <t>Johan Muliadi Kerta</t>
-  </si>
-  <si>
-    <t>Lisye Aliwinoto</t>
-  </si>
-  <si>
-    <t>20100104</t>
-  </si>
-  <si>
-    <t>0048873862</t>
-  </si>
-  <si>
-    <t>Marcella Richelle</t>
-  </si>
-  <si>
-    <t>Jl. Jingga Cempaka Kidul 7, KBP</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Grace Winarno</t>
-  </si>
-  <si>
-    <t>20130602</t>
-  </si>
-  <si>
-    <t>0027336553</t>
-  </si>
-  <si>
-    <t>Matthew Aurelius Tirta</t>
-  </si>
-  <si>
-    <t>SETRA DUTA LESTARI E2/3</t>
-  </si>
-  <si>
-    <t>FRINAN TIRTA</t>
-  </si>
-  <si>
-    <t>LENNY ISKANDAR</t>
-  </si>
-  <si>
-    <t>20140501</t>
-  </si>
-  <si>
-    <t>0037780323</t>
-  </si>
-  <si>
-    <t>Merlina Christy Setiabudi</t>
-  </si>
-  <si>
-    <t>Istana Regency II No.A2</t>
-  </si>
-  <si>
-    <t>Indra Hartono Setiabudi</t>
-  </si>
-  <si>
-    <t>Jo Mery</t>
-  </si>
-  <si>
-    <t>20051311</t>
-  </si>
-  <si>
-    <t>0024664412</t>
-  </si>
-  <si>
-    <t>Michael Hartono</t>
-  </si>
-  <si>
-    <t>JL JINGGA MENAK 7, TATAR JINGGA NEGARA, KBP</t>
-  </si>
-  <si>
-    <t>HARTONO WIYANTO</t>
-  </si>
-  <si>
-    <t>SUMIATI</t>
-  </si>
-  <si>
-    <t>20061302</t>
-  </si>
-  <si>
-    <t>0021748942</t>
-  </si>
-  <si>
-    <t>Mikaela Ariana Christabel</t>
-  </si>
-  <si>
-    <t>KOMP PARAHYANGAN RUMAH VILLA A-104</t>
-  </si>
-  <si>
-    <t>YOHANES CAHYO WIBOWO</t>
-  </si>
-  <si>
-    <t>ANITA KRISTIANINGSIH</t>
-  </si>
-  <si>
-    <t>20090105</t>
-  </si>
-  <si>
-    <t>0026782905</t>
-  </si>
-  <si>
-    <t>Mikha Julius Santoso</t>
-  </si>
-  <si>
-    <t>JL RATNA PAKSI 9, TATAR RATNASASIH</t>
-  </si>
-  <si>
-    <t>20071318</t>
-  </si>
-  <si>
-    <t>0048499150</t>
-  </si>
-  <si>
-    <t>Narumi Surya Tirtana</t>
-  </si>
-  <si>
-    <t>LARANG SETRA NO.3</t>
-  </si>
-  <si>
-    <t>Edy Tirtana Tutisna</t>
-  </si>
-  <si>
-    <t>Evi Lusita Hermawan</t>
-  </si>
-  <si>
-    <t>20071319</t>
-  </si>
-  <si>
-    <t>0045412761</t>
-  </si>
-  <si>
-    <t>Natan Serafino Sitorus</t>
-  </si>
-  <si>
-    <t>Jl. Ratna Paksi 6 KBP</t>
-  </si>
-  <si>
-    <t>Edrianto Sitorus</t>
-  </si>
-  <si>
-    <t>Helen</t>
-  </si>
-  <si>
-    <t>20061418</t>
-  </si>
-  <si>
-    <t>0024062108</t>
-  </si>
-  <si>
-    <t>Nathan Lawira</t>
-  </si>
-  <si>
-    <t>SUMBER SUGIH 14   8</t>
-  </si>
-  <si>
-    <t>LAU ANTHONY LAWIRA</t>
-  </si>
-  <si>
-    <t>YOFIANA</t>
-  </si>
-  <si>
-    <t>20061313</t>
-  </si>
-  <si>
-    <t>0027981119</t>
-  </si>
-  <si>
-    <t>Nathan Lesmana</t>
-  </si>
-  <si>
-    <t>Sidney</t>
-  </si>
-  <si>
-    <t>MEKAR RAHARJA II/22 ; Mekar Wangi</t>
-  </si>
-  <si>
-    <t>DEDY DJUNAEDY LESMANA</t>
-  </si>
-  <si>
-    <t>LINA KUSNADI</t>
-  </si>
-  <si>
-    <t>20081505</t>
-  </si>
-  <si>
-    <t>0029537709</t>
-  </si>
-  <si>
-    <t>Nathanael Wijaya Saputra</t>
-  </si>
-  <si>
-    <t>JL SUKAJADI 88</t>
-  </si>
-  <si>
-    <t>HANJAYA SAPUTRA</t>
-  </si>
-  <si>
-    <t>HELINA YUSANTI</t>
-  </si>
-  <si>
-    <t>20071414</t>
-  </si>
-  <si>
-    <t>0033245153</t>
-  </si>
-  <si>
-    <t>Neal Sebastian Chandra</t>
-  </si>
-  <si>
-    <t>JL LARANG ASRI 12</t>
-  </si>
-  <si>
-    <t>ADE CHANDRA</t>
-  </si>
-  <si>
-    <t>MEILI RUSLI</t>
-  </si>
-  <si>
-    <t>20091504</t>
-  </si>
-  <si>
-    <t>0031262612</t>
-  </si>
-  <si>
-    <t>Nelson Timothy Tjahyadi</t>
-  </si>
-  <si>
-    <t>Jl. Tarumanagara Timur 49, Singgasana Pradana</t>
-  </si>
-  <si>
-    <t>Jonky Tjahyadi</t>
-  </si>
-  <si>
-    <t>Lanny Maulana Sofyan</t>
-  </si>
-  <si>
-    <t>20071320</t>
-  </si>
-  <si>
-    <t>0049296599</t>
-  </si>
-  <si>
-    <t>Nicholas Adam</t>
-  </si>
-  <si>
-    <t>Jl. Ratna Kencana 19 KBP</t>
-  </si>
-  <si>
-    <t>Audy Kusnadjaja</t>
-  </si>
-  <si>
-    <t>Ria Nirwana</t>
-  </si>
-  <si>
-    <t>20081410</t>
-  </si>
-  <si>
-    <t>0047823666</t>
-  </si>
-  <si>
-    <t>Nicholas Cedric Cornelius</t>
-  </si>
-  <si>
-    <t>Buddhist</t>
-  </si>
-  <si>
-    <t>Jl. Taman Kopo Indah I-C26</t>
-  </si>
-  <si>
-    <t>Wiwie</t>
-  </si>
-  <si>
-    <t>Lanny Herawati</t>
-  </si>
-  <si>
-    <t>20071321</t>
-  </si>
-  <si>
-    <t>0048401421</t>
-  </si>
-  <si>
-    <t>Nicole Abigail Darmawan</t>
-  </si>
-  <si>
-    <t>Jl. Wangsa Kencana 16 KBP</t>
-  </si>
-  <si>
-    <t>Abadi Kusnanto</t>
-  </si>
-  <si>
-    <t>Nilawati Suparlim</t>
-  </si>
-  <si>
-    <t>20071322</t>
-  </si>
-  <si>
-    <t>0041826351</t>
-  </si>
-  <si>
-    <t>Olivia Ernestine Alexander</t>
-  </si>
-  <si>
-    <t>Palembang</t>
-  </si>
-  <si>
-    <t>Jl. Larang Agung 18 Tatar Larangtapa KBP</t>
-  </si>
-  <si>
-    <t>G. Casey Alexander W.</t>
-  </si>
-  <si>
-    <t>Lince Noveyanti</t>
-  </si>
-  <si>
-    <t>20061404</t>
-  </si>
-  <si>
-    <t>0025063127</t>
-  </si>
-  <si>
-    <t>Oliviera Priscilla</t>
-  </si>
-  <si>
-    <t>ROSA SAMINI SUKIRDJADJAJA</t>
-  </si>
-  <si>
-    <t>20160801</t>
-  </si>
-  <si>
-    <t>0012926526</t>
-  </si>
-  <si>
-    <t>Park Jun Yi</t>
-  </si>
-  <si>
-    <t>Jl. Jingga Kusuma Kulon 14</t>
-  </si>
-  <si>
-    <t>Lee Jung A</t>
-  </si>
-  <si>
-    <t>20071323</t>
-  </si>
-  <si>
-    <t>0047105000</t>
-  </si>
-  <si>
-    <t>Peter Ryan Raozen</t>
-  </si>
-  <si>
-    <t>Jl. Batununggal Mulia 2/18</t>
-  </si>
-  <si>
-    <t>Richard Raozen</t>
-  </si>
-  <si>
-    <t>Hellen Muliawan</t>
-  </si>
-  <si>
-    <t>20130502</t>
-  </si>
-  <si>
-    <t>0034118484</t>
-  </si>
-  <si>
-    <t>Prins Dylan Mochran</t>
-  </si>
-  <si>
-    <t>JL. KIDANG PANANJUNG NO.51</t>
-  </si>
-  <si>
-    <t>Lily Puspadewi Kurniawan</t>
-  </si>
-  <si>
-    <t>Daurie Mochran</t>
-  </si>
-  <si>
-    <t>20100105</t>
-  </si>
-  <si>
-    <t>0048952079</t>
-  </si>
-  <si>
-    <t>Priska Adriana</t>
-  </si>
-  <si>
-    <t>Jl. Pitarani 16 KBP</t>
-  </si>
-  <si>
-    <t>Medhi Widjaja</t>
-  </si>
-  <si>
-    <t>Ruth Paulina</t>
-  </si>
-  <si>
-    <t>20061315</t>
-  </si>
-  <si>
-    <t>0025488017</t>
-  </si>
-  <si>
-    <t>Rachel Melynda</t>
-  </si>
-  <si>
-    <t>JL SETRADUTA HEGAR J3/I</t>
-  </si>
-  <si>
-    <t>STEFANUS CHARLES S</t>
-  </si>
-  <si>
-    <t>LILY TASMAN</t>
-  </si>
-  <si>
-    <t>20071324</t>
-  </si>
-  <si>
-    <t>0045984294</t>
-  </si>
-  <si>
-    <t>Rafferty Hugo</t>
-  </si>
-  <si>
-    <t>Jl. Kopo Sari I/2A (Kopo Sari 529)</t>
-  </si>
-  <si>
-    <t>Robi Gunawan</t>
-  </si>
-  <si>
-    <t>Heather</t>
-  </si>
-  <si>
-    <t>20160703</t>
-  </si>
-  <si>
-    <t>0044977225</t>
-  </si>
-  <si>
-    <t>Ray Christopher</t>
-  </si>
-  <si>
-    <t>Jl. Kopo Bihbul Gg. pak Onit 3 No. 123</t>
-  </si>
-  <si>
-    <t>Arifin</t>
-  </si>
-  <si>
-    <t>Puspita Dewi</t>
-  </si>
-  <si>
-    <t>20071415</t>
-  </si>
-  <si>
-    <t>0039669199</t>
-  </si>
-  <si>
-    <t>Raynard Elleazar</t>
-  </si>
-  <si>
-    <t>JL.BATUNUNGGAL ABADI V/17</t>
-  </si>
-  <si>
-    <t>FREDDY INDRAWAN SADELI</t>
-  </si>
-  <si>
-    <t>KEZIA LUCINDA LEE</t>
-  </si>
-  <si>
-    <t>20090202</t>
-  </si>
-  <si>
-    <t>0022127551</t>
-  </si>
-  <si>
-    <t>Raynard Rafferty</t>
-  </si>
-  <si>
-    <t>JL RAMBUT SETRA 12, TATAR RAMBUTKASIH, KBP</t>
-  </si>
-  <si>
-    <t>RAYMONDY JAYA</t>
-  </si>
-  <si>
-    <t>LIM MEI TJUN</t>
-  </si>
-  <si>
-    <t>20071416</t>
-  </si>
-  <si>
-    <t>0027366663</t>
-  </si>
-  <si>
-    <t>Revio Seviano Sasmito</t>
-  </si>
-  <si>
-    <t>JL WANGSA SETRA WETAN 12</t>
-  </si>
-  <si>
-    <t>JANIKA SASMITO</t>
-  </si>
-  <si>
-    <t>AUGUSTRIA HARININGTIAS</t>
-  </si>
-  <si>
-    <t>20080104</t>
-  </si>
-  <si>
-    <t>0024967598</t>
-  </si>
-  <si>
-    <t>Richard Alexander Fedora Yoshuara</t>
-  </si>
-  <si>
-    <t>JL PITAJAYA12, TATAR PITALOKA, KBP</t>
-  </si>
-  <si>
-    <t>HANDY KERTARAHARJA, YO</t>
-  </si>
-  <si>
-    <t>NATALIA AVIONIKA RINDJAJANI</t>
-  </si>
-  <si>
-    <t>20071325</t>
-  </si>
-  <si>
-    <t>0043767343</t>
-  </si>
-  <si>
-    <t>River Zoe</t>
-  </si>
-  <si>
-    <t>Jl. Rebana 21</t>
-  </si>
-  <si>
-    <t>Jossy Mashary</t>
-  </si>
-  <si>
-    <t>Sri Lumiarti</t>
-  </si>
-  <si>
-    <t>20051314</t>
-  </si>
-  <si>
-    <t>0025922446</t>
-  </si>
-  <si>
-    <t>Rowie Samuel Tedja</t>
-  </si>
-  <si>
-    <t>SMAK 1 BPK Penabur</t>
-  </si>
-  <si>
-    <t>PARAKAN RESIK 31</t>
-  </si>
-  <si>
-    <t>ROY IBRAHIM TEDJA</t>
-  </si>
-  <si>
-    <t>WISYE LANGKUN</t>
-  </si>
-  <si>
-    <t>20061419</t>
-  </si>
-  <si>
-    <t>0026142281</t>
-  </si>
-  <si>
-    <t>Satria Fernando Viery</t>
-  </si>
-  <si>
-    <t>JL JINGGA KUSUMA KULON 21, TATAR JINGGA NEGARA, KBP</t>
-  </si>
-  <si>
-    <t>YOGI WIWOHO, SE, AK, MM</t>
-  </si>
-  <si>
-    <t>MELIYANNA</t>
-  </si>
-  <si>
-    <t>20150601</t>
-  </si>
-  <si>
-    <t>3029838352</t>
-  </si>
-  <si>
-    <t>Seo Ha Jeong</t>
-  </si>
-  <si>
-    <t>Jl. Jingga Menak 22</t>
-  </si>
-  <si>
-    <t>Kim Hyo Young</t>
-  </si>
-  <si>
-    <t>20061406</t>
-  </si>
-  <si>
-    <t>0028024676</t>
-  </si>
-  <si>
-    <t>Sergio Alvaro</t>
-  </si>
-  <si>
-    <t>JL SUKAMULYA INDAH 10   1C</t>
-  </si>
-  <si>
-    <t>GUNAWAN SASTRAWIDJAJA</t>
-  </si>
-  <si>
-    <t>YULIANI AGUSTINE</t>
-  </si>
-  <si>
-    <t>20061317</t>
-  </si>
-  <si>
-    <t>0039853473</t>
-  </si>
-  <si>
-    <t>Shannon Adeline Wijaya</t>
-  </si>
-  <si>
-    <t>JL MEKAR ABADI 3A</t>
-  </si>
-  <si>
-    <t>BUDIANTO WIJAYA</t>
-  </si>
-  <si>
-    <t>RINA</t>
-  </si>
-  <si>
-    <t>20051315</t>
-  </si>
-  <si>
-    <t>0018723401</t>
-  </si>
-  <si>
-    <t>Shannon Hartono</t>
-  </si>
-  <si>
-    <t>JL CIBADAK 250</t>
-  </si>
-  <si>
-    <t>20171001</t>
-  </si>
-  <si>
-    <t>0025493093</t>
-  </si>
-  <si>
-    <t>Shanon Eden Ariella</t>
-  </si>
-  <si>
-    <t>SMP Bintang Mulia</t>
-  </si>
-  <si>
-    <t>TAMAN KOPO INDAH II BLOK 3A NO. 136</t>
-  </si>
-  <si>
-    <t>DAVIT SUMANTRI</t>
-  </si>
-  <si>
-    <t>LIE, SILVIA</t>
-  </si>
-  <si>
-    <t>20081414</t>
-  </si>
-  <si>
-    <t>0038208471</t>
-  </si>
-  <si>
-    <t>Sharon</t>
-  </si>
-  <si>
-    <t>Jl. Pita Paksi 10 KBP</t>
-  </si>
-  <si>
-    <t>Desylina Djajaputra</t>
-  </si>
-  <si>
-    <t>Aris Sukmawijaya</t>
-  </si>
-  <si>
-    <t>20071326</t>
-  </si>
-  <si>
-    <t>0042821928</t>
-  </si>
-  <si>
-    <t>Stephanie</t>
-  </si>
-  <si>
-    <t>Jl. Jinggamenak 24 KBP</t>
-  </si>
-  <si>
-    <t>Hasan</t>
-  </si>
-  <si>
-    <t>Sansan</t>
-  </si>
-  <si>
-    <t>20091505</t>
-  </si>
-  <si>
-    <t>0037523989</t>
-  </si>
-  <si>
-    <t>Sue Ellen Alicia Pangestu</t>
-  </si>
-  <si>
-    <t>Jl. Srigunting Timur 8, Komp Dadali</t>
-  </si>
-  <si>
-    <t>Andrew Pangestu</t>
-  </si>
-  <si>
-    <t>Susyana Winardy</t>
-  </si>
-  <si>
-    <t>20061319</t>
-  </si>
-  <si>
-    <t>0031108750</t>
-  </si>
-  <si>
-    <t>Thalia Amarissa</t>
-  </si>
-  <si>
-    <t>BATUNUNGGAL SENTOSA II/37</t>
-  </si>
-  <si>
-    <t>SUGANDI BUNJAMIN</t>
-  </si>
-  <si>
-    <t>RETNO DHAMARJATI</t>
-  </si>
-  <si>
-    <t>20061421</t>
-  </si>
-  <si>
-    <t>0021906340</t>
-  </si>
-  <si>
-    <t>Timothy Petra Aletheia</t>
-  </si>
-  <si>
-    <t>JL WANGSA NINGRAT 46, TATAR WANGSAKERTA, KBP</t>
-  </si>
-  <si>
-    <t>BENY SUPRAPSONO</t>
-  </si>
-  <si>
-    <t>ANITA GUNAWAN SE</t>
-  </si>
-  <si>
-    <t>20061320</t>
-  </si>
-  <si>
-    <t>0029758124</t>
-  </si>
-  <si>
-    <t>Vanessa Harijanto</t>
-  </si>
-  <si>
-    <t>JL RAMBUT ENDAH 15</t>
-  </si>
-  <si>
-    <t>WIDJAJA HARIJANTO</t>
-  </si>
-  <si>
-    <t>INGE LISTIADI</t>
-  </si>
-  <si>
-    <t>20061407</t>
-  </si>
-  <si>
-    <t>0023235102</t>
-  </si>
-  <si>
-    <t>Verren Carenita Halim</t>
-  </si>
-  <si>
-    <t>LEMBAH BAJURI 22</t>
-  </si>
-  <si>
-    <t>STEPHANUS ANTON HALIM</t>
-  </si>
-  <si>
-    <t>SUSAN IMELYA HANAM</t>
-  </si>
-  <si>
-    <t>20090106</t>
-  </si>
-  <si>
-    <t>0034366270</t>
-  </si>
-  <si>
-    <t>Vincent Tan Prayitno</t>
-  </si>
-  <si>
-    <t>JL RAMBUT SETRA 5</t>
-  </si>
-  <si>
-    <t>HERU PRAYITNO</t>
-  </si>
-  <si>
-    <t>BERNADETTE LASTUTI</t>
-  </si>
-  <si>
-    <t>20071330</t>
-  </si>
-  <si>
-    <t>0032065417</t>
-  </si>
-  <si>
-    <t>William Kurniawan</t>
-  </si>
-  <si>
-    <t>Jl. Kebon Kelapa 9</t>
-  </si>
-  <si>
-    <t>Iwan Kurniawan Arifinrachmat</t>
-  </si>
-  <si>
-    <t>Bernike Adiwidjaja</t>
-  </si>
-  <si>
-    <t>20061321</t>
-  </si>
-  <si>
-    <t>0038463813</t>
-  </si>
-  <si>
-    <t>Zoe Heinz</t>
-  </si>
-  <si>
-    <t>JL REBANA 21</t>
-  </si>
-  <si>
-    <t>SANDY NOVIANTO</t>
-  </si>
-  <si>
-    <t>JOVY</t>
-  </si>
-  <si>
-    <t>NAMA</t>
-  </si>
-  <si>
-    <t>NIPD</t>
-  </si>
-  <si>
-    <t>POB</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Pekerjaan</t>
-  </si>
-  <si>
-    <t>Kristen</t>
-  </si>
-  <si>
-    <t>Sukarasa</t>
-  </si>
-  <si>
-    <t>Kec. Padalarang</t>
-  </si>
-  <si>
-    <t>Katholik</t>
-  </si>
-  <si>
-    <t>Sukamenak</t>
-  </si>
-  <si>
-    <t>ALEXANDRA EVELYNE WIJAYA</t>
   </si>
   <si>
     <t>CIPEUNDEUY</t>
@@ -2724,7 +2730,7 @@
   <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9360,7 +9366,7 @@
         <v>192010001</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>44299545</v>
@@ -9372,7 +9378,7 @@
         <v>38211</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>28</v>
@@ -9384,10 +9390,10 @@
         <v>2</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>40153</v>
@@ -9425,7 +9431,7 @@
         <v>192010032</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>29807545</v>
@@ -9437,7 +9443,7 @@
         <v>37580</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>38</v>
@@ -9449,10 +9455,10 @@
         <v>7</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>40553</v>
@@ -9484,13 +9490,13 @@
         <v>42</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>171810020</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>28427357</v>
@@ -9502,7 +9508,7 @@
         <v>37443</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>46</v>
@@ -9514,10 +9520,10 @@
         <v>11</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>40553</v>
@@ -9549,13 +9555,13 @@
         <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>171810001</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>29862167</v>
@@ -9567,7 +9573,7 @@
         <v>37509</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>52</v>
@@ -9579,10 +9585,10 @@
         <v>0</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>40553</v>
@@ -9614,13 +9620,13 @@
         <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>171810021</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>25829670</v>
@@ -9632,7 +9638,7 @@
         <v>37557</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>59</v>
@@ -9644,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>40553</v>
@@ -9679,13 +9685,13 @@
         <v>62</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>171810022</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>29026071</v>
@@ -9697,7 +9703,7 @@
         <v>37394</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>65</v>
@@ -9709,10 +9715,10 @@
         <v>7</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>40123</v>
@@ -9750,7 +9756,7 @@
         <v>181910001</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>29076274</v>
@@ -9762,7 +9768,7 @@
         <v>37599</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>73</v>
@@ -9774,10 +9780,10 @@
         <v>6</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Q8" s="0" t="s">
         <v>74</v>
@@ -9812,7 +9818,7 @@
         <v>181910002</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>34266824</v>
@@ -9824,7 +9830,7 @@
         <v>37874</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>79</v>
@@ -9836,10 +9842,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>40171</v>
@@ -9877,7 +9883,7 @@
         <v>171810024</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>23689638</v>
@@ -9889,7 +9895,7 @@
         <v>37271</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>85</v>
@@ -9901,10 +9907,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>40553</v>
@@ -9942,7 +9948,7 @@
         <v>192010002</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>42909302</v>
@@ -9954,7 +9960,7 @@
         <v>38149</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>91</v>
@@ -9966,10 +9972,10 @@
         <v>12</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>40233</v>
@@ -10007,7 +10013,7 @@
         <v>192010003</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>48650882</v>
@@ -10019,7 +10025,7 @@
         <v>38216</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>97</v>
@@ -10031,10 +10037,10 @@
         <v>5</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>40533</v>
@@ -10072,7 +10078,7 @@
         <v>192010004</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>38019927</v>
@@ -10084,7 +10090,7 @@
         <v>37951</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>103</v>
@@ -10096,10 +10102,10 @@
         <v>6</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>40000</v>
@@ -10137,7 +10143,7 @@
         <v>181910003</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>31250310</v>
@@ -10149,7 +10155,7 @@
         <v>37666</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>109</v>
@@ -10161,10 +10167,10 @@
         <v>14</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>40559</v>
@@ -10196,13 +10202,13 @@
         <v>112</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>171810003</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>19956667</v>
@@ -10214,7 +10220,7 @@
         <v>37252</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>115</v>
@@ -10226,10 +10232,10 @@
         <v>10</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>40162</v>
@@ -10267,7 +10273,7 @@
         <v>181910004</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>35582161</v>
@@ -10279,16 +10285,16 @@
         <v>37668</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>122</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="R16" s="0" t="s">
         <v>40</v>
@@ -10320,7 +10326,7 @@
         <v>192010017</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>37240295</v>
@@ -10332,7 +10338,7 @@
         <v>37967</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>127</v>
@@ -10344,10 +10350,10 @@
         <v>6</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>40241</v>
@@ -10379,13 +10385,13 @@
         <v>130</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>171810004</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>28366667</v>
@@ -10397,7 +10403,7 @@
         <v>37555</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>133</v>
@@ -10409,10 +10415,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>40553</v>
@@ -10450,7 +10456,7 @@
         <v>192010018</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>31682213</v>
@@ -10462,7 +10468,7 @@
         <v>37627</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>140</v>
@@ -10474,10 +10480,10 @@
         <v>2</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>40553</v>
@@ -10515,7 +10521,7 @@
         <v>192010005</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>37981220</v>
@@ -10527,7 +10533,7 @@
         <v>37715</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>146</v>
@@ -10539,10 +10545,10 @@
         <v>9</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>40193</v>
@@ -10574,13 +10580,13 @@
         <v>149</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>171810026</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>25493065</v>
@@ -10592,7 +10598,7 @@
         <v>37293</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>152</v>
@@ -10604,10 +10610,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>153</v>
@@ -10642,7 +10648,7 @@
         <v>181910022</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>24209736</v>
@@ -10654,7 +10660,7 @@
         <v>37606</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>158</v>
@@ -10666,10 +10672,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>40559</v>
@@ -10707,7 +10713,7 @@
         <v>192010006</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>31248243</v>
@@ -10719,7 +10725,7 @@
         <v>37964</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>164</v>
@@ -10731,10 +10737,10 @@
         <v>6</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>40141</v>
@@ -10772,7 +10778,7 @@
         <v>192010007</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>36463216</v>
@@ -10784,7 +10790,7 @@
         <v>37901</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>170</v>
@@ -10796,10 +10802,10 @@
         <v>1</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Q24" s="0" t="s">
         <v>171</v>
@@ -10834,7 +10840,7 @@
         <v>181910023</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>29835479</v>
@@ -10846,7 +10852,7 @@
         <v>37531</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>176</v>
@@ -10858,10 +10864,10 @@
         <v>2</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>40233</v>
@@ -10893,13 +10899,13 @@
         <v>179</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>192010033</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>42629389</v>
@@ -10911,7 +10917,7 @@
         <v>38145</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>183</v>
@@ -10923,10 +10929,10 @@
         <v>2</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>40254</v>
@@ -10964,7 +10970,7 @@
         <v>181910024</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>24622426</v>
@@ -10976,7 +10982,7 @@
         <v>37611</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>189</v>
@@ -10988,10 +10994,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>40553</v>
@@ -11029,7 +11035,7 @@
         <v>181910025</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>24606264</v>
@@ -11041,7 +11047,7 @@
         <v>37509</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>195</v>
@@ -11053,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>40266</v>
@@ -11100,7 +11106,7 @@
         <v>181910026</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>36447590</v>
@@ -11112,7 +11118,7 @@
         <v>37829</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>203</v>
@@ -11124,10 +11130,10 @@
         <v>6</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>40252</v>
@@ -11159,13 +11165,13 @@
         <v>206</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>171810027</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>25406051</v>
@@ -11177,7 +11183,7 @@
         <v>37314</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>209</v>
@@ -11189,10 +11195,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>40553</v>
@@ -11230,7 +11236,7 @@
         <v>192010019</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>44677266</v>
@@ -11242,7 +11248,7 @@
         <v>38172</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>215</v>
@@ -11254,10 +11260,10 @@
         <v>7</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>40254</v>
@@ -11295,7 +11301,7 @@
         <v>192010020</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>3035827398</v>
@@ -11307,16 +11313,16 @@
         <v>37976</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>222</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="S32" s="0" t="s">
         <v>123</v>
@@ -11345,7 +11351,7 @@
         <v>181910027</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>21640076</v>
@@ -11357,7 +11363,7 @@
         <v>37448</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>226</v>
@@ -11369,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>40553</v>
@@ -11404,13 +11410,13 @@
         <v>229</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>192010034</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>42091063</v>
@@ -11422,7 +11428,7 @@
         <v>38049</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>233</v>
@@ -11434,10 +11440,10 @@
         <v>0</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>16155</v>
@@ -11475,7 +11481,7 @@
         <v>192010035</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>39895667</v>
@@ -11487,16 +11493,16 @@
         <v>37720</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>240</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="S35" s="0" t="s">
         <v>241</v>
@@ -11525,7 +11531,7 @@
         <v>192010021</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>46481030</v>
@@ -11537,7 +11543,7 @@
         <v>38086</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>245</v>
@@ -11549,10 +11555,10 @@
         <v>7</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>40123</v>
@@ -11590,7 +11596,7 @@
         <v>181910028</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>38569316</v>
@@ -11602,7 +11608,7 @@
         <v>37737</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>251</v>
@@ -11614,10 +11620,10 @@
         <v>4</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>40241</v>
@@ -11655,7 +11661,7 @@
         <v>192010036</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>48323399</v>
@@ -11667,7 +11673,7 @@
         <v>38034</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>257</v>
@@ -11679,10 +11685,10 @@
         <v>16</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P38" s="0" t="n">
         <v>40553</v>
@@ -11714,13 +11720,13 @@
         <v>260</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>171810006</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>21966852</v>
@@ -11732,7 +11738,7 @@
         <v>37533</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>263</v>
@@ -11744,10 +11750,10 @@
         <v>9</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="P39" s="0" t="n">
         <v>40254</v>
@@ -11779,13 +11785,13 @@
         <v>266</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>192010022</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>40635176</v>
@@ -11797,7 +11803,7 @@
         <v>38150</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>269</v>
@@ -11809,10 +11815,10 @@
         <v>13</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>40553</v>
@@ -11850,7 +11856,7 @@
         <v>181910029</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>27423965</v>
@@ -11862,7 +11868,7 @@
         <v>37556</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>275</v>
@@ -11874,10 +11880,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>40553</v>
@@ -11915,7 +11921,7 @@
         <v>192010023</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>48851380</v>
@@ -11927,7 +11933,7 @@
         <v>38097</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>281</v>
@@ -11939,10 +11945,10 @@
         <v>7</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>282</v>
@@ -11971,13 +11977,13 @@
         <v>284</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>171810007</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>12963266</v>
@@ -11989,7 +11995,7 @@
         <v>37133</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>287</v>
@@ -12001,10 +12007,10 @@
         <v>0</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>40553</v>
@@ -12042,7 +12048,7 @@
         <v>181910005</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>32860365</v>
@@ -12054,7 +12060,7 @@
         <v>37864</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>293</v>
@@ -12066,10 +12072,10 @@
         <v>4</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>40238</v>
@@ -12107,7 +12113,7 @@
         <v>192010008</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>43948637</v>
@@ -12119,7 +12125,7 @@
         <v>37991</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>299</v>
@@ -12131,10 +12137,10 @@
         <v>7</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="P45" s="0" t="n">
         <v>40000</v>
@@ -12172,7 +12178,7 @@
         <v>171810008</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>20914611</v>
@@ -12184,7 +12190,7 @@
         <v>37367</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>306</v>
@@ -12196,10 +12202,10 @@
         <v>0</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>40553</v>
@@ -12237,13 +12243,13 @@
         <v>310</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>171810009</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>29135708</v>
@@ -12255,7 +12261,7 @@
         <v>37387</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>313</v>
@@ -12267,10 +12273,10 @@
         <v>4</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>314</v>
@@ -12299,13 +12305,13 @@
         <v>316</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>171810010</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>29883039</v>
@@ -12317,7 +12323,7 @@
         <v>37420</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>319</v>
@@ -12329,10 +12335,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P48" s="0" t="n">
         <v>40553</v>
@@ -12370,7 +12376,7 @@
         <v>192010024</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>49845904</v>
@@ -12382,7 +12388,7 @@
         <v>38120</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>325</v>
@@ -12394,10 +12400,10 @@
         <v>1</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>40225</v>
@@ -12435,7 +12441,7 @@
         <v>192010037</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>47831197</v>
@@ -12447,7 +12453,7 @@
         <v>38012</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>331</v>
@@ -12459,10 +12465,10 @@
         <v>7</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>40553</v>
@@ -12500,7 +12506,7 @@
         <v>192010025</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>32144230</v>
@@ -12512,7 +12518,7 @@
         <v>37962</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>337</v>
@@ -12524,10 +12530,10 @@
         <v>10</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>40553</v>
@@ -12559,13 +12565,13 @@
         <v>340</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>171810028</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>27548243</v>
@@ -12577,7 +12583,7 @@
         <v>37419</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>343</v>
@@ -12589,10 +12595,10 @@
         <v>1</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>40532</v>
@@ -12630,7 +12636,7 @@
         <v>181910030</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>29588303</v>
@@ -12642,7 +12648,7 @@
         <v>37585</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>349</v>
@@ -12654,10 +12660,10 @@
         <v>12</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>40253</v>
@@ -12689,13 +12695,13 @@
         <v>352</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>171810029</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>21927933</v>
@@ -12707,7 +12713,7 @@
         <v>37332</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>355</v>
@@ -12719,10 +12725,10 @@
         <v>5</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>40221</v>
@@ -12754,13 +12760,13 @@
         <v>358</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>171810011</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>28841506</v>
@@ -12772,7 +12778,7 @@
         <v>37426</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>79</v>
@@ -12784,10 +12790,10 @@
         <v>0</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="P55" s="0" t="n">
         <v>40161</v>
@@ -12825,7 +12831,7 @@
         <v>181910006</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>27336555</v>
@@ -12837,7 +12843,7 @@
         <v>37530</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>364</v>
@@ -12849,10 +12855,10 @@
         <v>10</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="P56" s="0" t="n">
         <v>40162</v>
@@ -12890,7 +12896,7 @@
         <v>181910007</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>35620989</v>
@@ -12902,7 +12908,7 @@
         <v>37849</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>370</v>
@@ -12914,10 +12920,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P57" s="0" t="n">
         <v>40553</v>
@@ -12955,7 +12961,7 @@
         <v>192010009</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>47308867</v>
@@ -12967,7 +12973,7 @@
         <v>38111</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>376</v>
@@ -12979,10 +12985,10 @@
         <v>12</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P58" s="0" t="n">
         <v>40253</v>
@@ -13020,7 +13026,7 @@
         <v>181910008</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>39719225</v>
@@ -13032,7 +13038,7 @@
         <v>37654</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>381</v>
@@ -13044,10 +13050,10 @@
         <v>1</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="P59" s="0" t="n">
         <v>40124</v>
@@ -13085,7 +13091,7 @@
         <v>181910009</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>22265512</v>
@@ -13097,7 +13103,7 @@
         <v>37505</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>387</v>
@@ -13109,10 +13115,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="P60" s="0" t="n">
         <v>40174</v>
@@ -13144,13 +13150,13 @@
         <v>390</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>192010010</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>47340081</v>
@@ -13162,7 +13168,7 @@
         <v>38009</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>394</v>
@@ -13174,10 +13180,10 @@
         <v>15</v>
       </c>
       <c r="N61" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="O61" s="0" t="s">
         <v>808</v>
-      </c>
-      <c r="O61" s="0" t="s">
-        <v>806</v>
       </c>
       <c r="P61" s="0" t="n">
         <v>40553</v>
@@ -13215,7 +13221,7 @@
         <v>181910010</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>26869588</v>
@@ -13227,16 +13233,16 @@
         <v>37461</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>400</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="R62" s="0" t="s">
         <v>40</v>
@@ -13268,7 +13274,7 @@
         <v>181910011</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>25623179</v>
@@ -13280,7 +13286,7 @@
         <v>37677</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>405</v>
@@ -13292,10 +13298,10 @@
         <v>0</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P63" s="0" t="n">
         <v>40553</v>
@@ -13333,7 +13339,7 @@
         <v>181910012</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>32085485</v>
@@ -13345,7 +13351,7 @@
         <v>37673</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>411</v>
@@ -13357,10 +13363,10 @@
         <v>0</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="P64" s="0" t="n">
         <v>40175</v>
@@ -13398,7 +13404,7 @@
         <v>192010011</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>35618599</v>
@@ -13410,7 +13416,7 @@
         <v>37911</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>418</v>
@@ -13422,10 +13428,10 @@
         <v>5</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="Q65" s="0" t="s">
         <v>419</v>
@@ -13460,7 +13466,7 @@
         <v>181910031</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>38327744</v>
@@ -13472,7 +13478,7 @@
         <v>37804</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>424</v>
@@ -13484,10 +13490,10 @@
         <v>0</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P66" s="0" t="n">
         <v>40553</v>
@@ -13525,7 +13531,7 @@
         <v>192010026</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>49958079</v>
@@ -13537,7 +13543,7 @@
         <v>38218</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>433</v>
@@ -13549,10 +13555,10 @@
         <v>7</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P67" s="0" t="n">
         <v>40000</v>
@@ -13590,7 +13596,7 @@
         <v>181910013</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>34362842</v>
@@ -13602,7 +13608,7 @@
         <v>37752</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>439</v>
@@ -13614,10 +13620,10 @@
         <v>2</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="P68" s="0" t="n">
         <v>40233</v>
@@ -13649,13 +13655,13 @@
         <v>442</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>181910014</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>31798065</v>
@@ -13667,7 +13673,7 @@
         <v>37642</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>445</v>
@@ -13679,10 +13685,10 @@
         <v>0</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P69" s="0" t="n">
         <v>40553</v>
@@ -13720,7 +13726,7 @@
         <v>192010027</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>48873862</v>
@@ -13732,7 +13738,7 @@
         <v>38031</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J70" s="0" t="s">
         <v>451</v>
@@ -13744,10 +13750,10 @@
         <v>2</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P70" s="0" t="n">
         <v>40553</v>
@@ -13779,13 +13785,13 @@
         <v>454</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>171810030</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>27336553</v>
@@ -13797,7 +13803,7 @@
         <v>37520</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J71" s="0" t="s">
         <v>457</v>
@@ -13809,10 +13815,10 @@
         <v>0</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>458</v>
@@ -13847,7 +13853,7 @@
         <v>192010028</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>37780323</v>
@@ -13859,7 +13865,7 @@
         <v>37980</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J72" s="0" t="s">
         <v>463</v>
@@ -13871,10 +13877,10 @@
         <v>10</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="P72" s="0" t="n">
         <v>40173</v>
@@ -13906,13 +13912,13 @@
         <v>466</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>171810032</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>24664412</v>
@@ -13924,7 +13930,7 @@
         <v>37364</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J73" s="0" t="s">
         <v>469</v>
@@ -13936,10 +13942,10 @@
         <v>11</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P73" s="0" t="n">
         <v>40553</v>
@@ -13977,7 +13983,7 @@
         <v>181910032</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>21748942</v>
@@ -13989,7 +13995,7 @@
         <v>37608</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J74" s="0" t="s">
         <v>475</v>
@@ -14001,10 +14007,10 @@
         <v>2</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="P74" s="0" t="n">
         <v>40559</v>
@@ -14042,7 +14048,7 @@
         <v>181910033</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>26782905</v>
@@ -14054,7 +14060,7 @@
         <v>37448</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>481</v>
@@ -14066,10 +14072,10 @@
         <v>0</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P75" s="0" t="n">
         <v>40553</v>
@@ -14107,7 +14113,7 @@
         <v>192010012</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>48499150</v>
@@ -14119,7 +14125,7 @@
         <v>38068</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>485</v>
@@ -14131,10 +14137,10 @@
         <v>12</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P76" s="0" t="n">
         <v>40553</v>
@@ -14172,7 +14178,7 @@
         <v>192010013</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>45412761</v>
@@ -14184,7 +14190,7 @@
         <v>38230</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>491</v>
@@ -14196,10 +14202,10 @@
         <v>8</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P77" s="0" t="n">
         <v>40553</v>
@@ -14231,13 +14237,13 @@
         <v>494</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>171810033</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>24062108</v>
@@ -14249,7 +14255,7 @@
         <v>37352</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>497</v>
@@ -14261,10 +14267,10 @@
         <v>11</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="P78" s="0" t="n">
         <v>40222</v>
@@ -14302,7 +14308,7 @@
         <v>181910015</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>27981119</v>
@@ -14314,7 +14320,7 @@
         <v>37604</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>504</v>
@@ -14326,10 +14332,10 @@
         <v>4</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="P79" s="0" t="n">
         <v>40254</v>
@@ -14367,7 +14373,7 @@
         <v>181910034</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>29537709</v>
@@ -14379,7 +14385,7 @@
         <v>37572</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>510</v>
@@ -14391,10 +14397,10 @@
         <v>12</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="P80" s="0" t="n">
         <v>40161</v>
@@ -14432,7 +14438,7 @@
         <v>181910016</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>33245153</v>
@@ -14444,7 +14450,7 @@
         <v>37674</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>516</v>
@@ -14456,10 +14462,10 @@
         <v>0</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P81" s="0" t="n">
         <v>40553</v>
@@ -14497,7 +14503,7 @@
         <v>192010029</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F82" s="0" t="n">
         <v>31262612</v>
@@ -14509,7 +14515,7 @@
         <v>37964</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J82" s="0" t="s">
         <v>522</v>
@@ -14521,10 +14527,10 @@
         <v>5</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P82" s="0" t="n">
         <v>40266</v>
@@ -14562,7 +14568,7 @@
         <v>192010030</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>49296599</v>
@@ -14574,7 +14580,7 @@
         <v>38021</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>528</v>
@@ -14586,10 +14592,10 @@
         <v>1</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P83" s="0" t="n">
         <v>40553</v>
@@ -14627,7 +14633,7 @@
         <v>192010038</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>47823666</v>
@@ -14639,7 +14645,7 @@
         <v>38039</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J84" s="0" t="s">
         <v>535</v>
@@ -14651,10 +14657,10 @@
         <v>21</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P84" s="0" t="n">
         <v>40225</v>
@@ -14692,7 +14698,7 @@
         <v>192010014</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>48401421</v>
@@ -14704,7 +14710,7 @@
         <v>38117</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J85" s="0" t="s">
         <v>541</v>
@@ -14716,10 +14722,10 @@
         <v>8</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P85" s="0" t="n">
         <v>40553</v>
@@ -14757,7 +14763,7 @@
         <v>192010039</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>41826351</v>
@@ -14769,7 +14775,7 @@
         <v>38216</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J86" s="0" t="s">
         <v>548</v>
@@ -14781,10 +14787,10 @@
         <v>11</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P86" s="0" t="n">
         <v>40553</v>
@@ -14816,13 +14822,13 @@
         <v>551</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>171810035</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>25063127</v>
@@ -14834,7 +14840,7 @@
         <v>37377</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J87" s="0" t="s">
         <v>203</v>
@@ -14846,10 +14852,10 @@
         <v>0</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="P87" s="0" t="n">
         <v>40252</v>
@@ -14887,7 +14893,7 @@
         <v>181910035</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>12926526</v>
@@ -14899,16 +14905,16 @@
         <v>37214</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J88" s="0" t="s">
         <v>558</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="R88" s="0" t="s">
         <v>40</v>
@@ -14940,7 +14946,7 @@
         <v>192010015</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>47105000</v>
@@ -14952,7 +14958,7 @@
         <v>38082</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J89" s="0" t="s">
         <v>563</v>
@@ -14964,10 +14970,10 @@
         <v>1</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="O89" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P89" s="0" t="n">
         <v>40266</v>
@@ -14999,13 +15005,13 @@
         <v>566</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>192010040</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>34118484</v>
@@ -15017,7 +15023,7 @@
         <v>37926</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>569</v>
@@ -15029,10 +15035,10 @@
         <v>11</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P90" s="0" t="n">
         <v>40553</v>
@@ -15070,7 +15076,7 @@
         <v>192010041</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>48952079</v>
@@ -15082,7 +15088,7 @@
         <v>38221</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J91" s="0" t="s">
         <v>575</v>
@@ -15094,10 +15100,10 @@
         <v>3</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P91" s="0" t="n">
         <v>40553</v>
@@ -15135,7 +15141,7 @@
         <v>181910036</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>25488017</v>
@@ -15147,7 +15153,7 @@
         <v>37552</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>581</v>
@@ -15159,10 +15165,10 @@
         <v>1</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="P92" s="0" t="n">
         <v>40559</v>
@@ -15200,7 +15206,7 @@
         <v>192010031</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>45984294</v>
@@ -15212,7 +15218,7 @@
         <v>38067</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J93" s="0" t="s">
         <v>587</v>
@@ -15224,10 +15230,10 @@
         <v>3</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P93" s="0" t="n">
         <v>40227</v>
@@ -15265,7 +15271,7 @@
         <v>192010042</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F94" s="0" t="n">
         <v>44977225</v>
@@ -15277,7 +15283,7 @@
         <v>38132</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J94" s="0" t="s">
         <v>593</v>
@@ -15289,10 +15295,10 @@
         <v>1</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="O94" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="P94" s="0" t="n">
         <v>40225</v>
@@ -15330,7 +15336,7 @@
         <v>181910018</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>39669199</v>
@@ -15342,7 +15348,7 @@
         <v>37766</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J95" s="0" t="s">
         <v>599</v>
@@ -15354,10 +15360,10 @@
         <v>0</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="P95" s="0" t="n">
         <v>40267</v>
@@ -15389,13 +15395,13 @@
         <v>602</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>171810013</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>22127551</v>
@@ -15407,7 +15413,7 @@
         <v>37387</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>605</v>
@@ -15419,10 +15425,10 @@
         <v>0</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P96" s="0" t="n">
         <v>40553</v>
@@ -15460,7 +15466,7 @@
         <v>181910037</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>27366663</v>
@@ -15472,7 +15478,7 @@
         <v>37514</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>611</v>
@@ -15484,10 +15490,10 @@
         <v>0</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P97" s="0" t="n">
         <v>40553</v>
@@ -15519,13 +15525,13 @@
         <v>614</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>171810014</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>24967598</v>
@@ -15537,7 +15543,7 @@
         <v>37409</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>617</v>
@@ -15549,10 +15555,10 @@
         <v>0</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P98" s="0" t="n">
         <v>40553</v>
@@ -15590,7 +15596,7 @@
         <v>192010043</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>43767343</v>
@@ -15602,7 +15608,7 @@
         <v>38051</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J99" s="0" t="s">
         <v>623</v>
@@ -15614,10 +15620,10 @@
         <v>7</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O99" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P99" s="0" t="n">
         <v>40264</v>
@@ -15649,13 +15655,13 @@
         <v>626</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>181911041</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>25922446</v>
@@ -15667,7 +15673,7 @@
         <v>37330</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>630</v>
@@ -15679,10 +15685,10 @@
         <v>0</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="P100" s="0" t="n">
         <v>40262</v>
@@ -15714,13 +15720,13 @@
         <v>633</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>171810015</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>26142281</v>
@@ -15732,7 +15738,7 @@
         <v>37407</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>636</v>
@@ -15744,10 +15750,10 @@
         <v>0</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P101" s="0" t="n">
         <v>40553</v>
@@ -15785,7 +15791,7 @@
         <v>192010044</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>3029838352</v>
@@ -15797,16 +15803,16 @@
         <v>37549</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>642</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="S102" s="0" t="s">
         <v>643</v>
@@ -15829,13 +15835,13 @@
         <v>644</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>171810016</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>28024676</v>
@@ -15847,7 +15853,7 @@
         <v>37363</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>647</v>
@@ -15859,10 +15865,10 @@
         <v>2</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="P103" s="0" t="n">
         <v>40162</v>
@@ -15900,7 +15906,7 @@
         <v>181910019</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>39853473</v>
@@ -15912,7 +15918,7 @@
         <v>37887</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J104" s="0" t="s">
         <v>653</v>
@@ -15924,10 +15930,10 @@
         <v>5</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="P104" s="0" t="n">
         <v>40237</v>
@@ -15959,13 +15965,13 @@
         <v>656</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>171810017</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>18723401</v>
@@ -15977,7 +15983,7 @@
         <v>37133</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J105" s="0" t="s">
         <v>659</v>
@@ -15989,10 +15995,10 @@
         <v>11</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="O105" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="P105" s="0" t="n">
         <v>40173</v>
@@ -16024,13 +16030,13 @@
         <v>660</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>171810037</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>25493093</v>
@@ -16042,7 +16048,7 @@
         <v>37417</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J106" s="0" t="s">
         <v>664</v>
@@ -16057,7 +16063,7 @@
         <v>36</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="Q106" s="0" t="s">
         <v>665</v>
@@ -16086,13 +16092,13 @@
         <v>667</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>192010016</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>38208471</v>
@@ -16104,7 +16110,7 @@
         <v>37920</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J107" s="0" t="s">
         <v>670</v>
@@ -16116,10 +16122,10 @@
         <v>11</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O107" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P107" s="0" t="n">
         <v>40553</v>
@@ -16157,7 +16163,7 @@
         <v>192010045</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>42821928</v>
@@ -16169,7 +16175,7 @@
         <v>38160</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J108" s="0" t="s">
         <v>676</v>
@@ -16181,10 +16187,10 @@
         <v>12</v>
       </c>
       <c r="N108" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="O108" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P108" s="0" t="n">
         <v>40553</v>
@@ -16222,7 +16228,7 @@
         <v>192010046</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>37523989</v>
@@ -16234,7 +16240,7 @@
         <v>37975</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J109" s="0" t="s">
         <v>682</v>
@@ -16246,10 +16252,10 @@
         <v>2</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="O109" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P109" s="0" t="n">
         <v>40184</v>
@@ -16287,7 +16293,7 @@
         <v>181910038</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F110" s="0" t="n">
         <v>31108750</v>
@@ -16299,7 +16305,7 @@
         <v>37670</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J110" s="0" t="s">
         <v>688</v>
@@ -16311,10 +16317,10 @@
         <v>5</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="O110" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="P110" s="0" t="n">
         <v>40267</v>
@@ -16346,13 +16352,13 @@
         <v>691</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>171810018</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>21906340</v>
@@ -16364,7 +16370,7 @@
         <v>37281</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J111" s="0" t="s">
         <v>694</v>
@@ -16376,10 +16382,10 @@
         <v>6</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O111" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P111" s="0" t="n">
         <v>40553</v>
@@ -16417,7 +16423,7 @@
         <v>181910039</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>29758124</v>
@@ -16429,7 +16435,7 @@
         <v>37516</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J112" s="0" t="s">
         <v>700</v>
@@ -16441,10 +16447,10 @@
         <v>0</v>
       </c>
       <c r="N112" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O112" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P112" s="0" t="n">
         <v>40553</v>
@@ -16476,13 +16482,13 @@
         <v>703</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>171810019</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>23235102</v>
@@ -16494,7 +16500,7 @@
         <v>37378</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J113" s="0" t="s">
         <v>706</v>
@@ -16506,10 +16512,10 @@
         <v>4</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O113" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="P113" s="0" t="n">
         <v>42115</v>
@@ -16547,7 +16553,7 @@
         <v>181910040</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>34366270</v>
@@ -16559,7 +16565,7 @@
         <v>37714</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J114" s="0" t="s">
         <v>712</v>
@@ -16571,10 +16577,10 @@
         <v>0</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O114" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P114" s="0" t="n">
         <v>40553</v>
@@ -16612,7 +16618,7 @@
         <v>192010047</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>32065417</v>
@@ -16624,7 +16630,7 @@
         <v>37880</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J115" s="0" t="s">
         <v>718</v>
@@ -16636,10 +16642,10 @@
         <v>15</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="O115" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P115" s="0" t="n">
         <v>40524</v>
@@ -16677,7 +16683,7 @@
         <v>181910020</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="F116" s="0" t="n">
         <v>38463813</v>
@@ -16689,7 +16695,7 @@
         <v>37777</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J116" s="0" t="s">
         <v>724</v>
@@ -16701,10 +16707,10 @@
         <v>3</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="O116" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="P116" s="0" t="n">
         <v>40264</v>
